--- a/Résultats/combined_dataMorlaix.xlsx
+++ b/Résultats/combined_dataMorlaix.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t xml:space="preserve">qseqid</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t xml:space="preserve">pident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qcovs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length</t>
   </si>
   <si>
     <t xml:space="preserve">longueur_sequence_pb</t>
@@ -734,145 +743,190 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
         <v>99.798</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>992</v>
+      </c>
+      <c r="M2" t="n">
         <v>991</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
+      <c r="N2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I3" t="n">
         <v>99.798</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>99</v>
+      </c>
+      <c r="L3" t="n">
+        <v>990</v>
+      </c>
+      <c r="M3" t="n">
         <v>991</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
+      <c r="N3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I4" t="n">
         <v>99.798</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>99</v>
+      </c>
+      <c r="L4" t="n">
+        <v>990</v>
+      </c>
+      <c r="M4" t="n">
         <v>991</v>
       </c>
-      <c r="K4" t="s">
-        <v>19</v>
+      <c r="N4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I5" t="n">
         <v>99.245</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" t="n">
         <v>1060</v>
       </c>
-      <c r="K5" t="s">
-        <v>29</v>
+      <c r="M5" t="n">
+        <v>1060</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -923,75 +977,102 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I2" t="n">
         <v>99.352</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1081</v>
+      </c>
+      <c r="M2" t="n">
         <v>1080</v>
       </c>
-      <c r="K2" t="s">
-        <v>37</v>
+      <c r="N2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I3" t="n">
         <v>100</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>99</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M3" t="n">
         <v>1052</v>
       </c>
-      <c r="K3" t="s">
-        <v>40</v>
+      <c r="N3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1042,390 +1123,498 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I2" t="n">
         <v>99.9</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
         <v>999</v>
       </c>
-      <c r="K2" t="s">
-        <v>44</v>
+      <c r="M2" t="n">
+        <v>999</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
         <v>100</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" t="n">
         <v>1026</v>
       </c>
-      <c r="K3" t="s">
-        <v>47</v>
+      <c r="M3" t="n">
+        <v>1026</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I4" t="n">
         <v>100</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" t="n">
         <v>1026</v>
       </c>
-      <c r="K4" t="s">
-        <v>47</v>
+      <c r="M4" t="n">
+        <v>1026</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" t="n">
         <v>99.899</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" t="n">
         <v>988</v>
       </c>
-      <c r="K5" t="s">
-        <v>56</v>
+      <c r="M5" t="n">
+        <v>988</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I6" t="n">
         <v>99.506</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" t="n">
         <v>1013</v>
       </c>
-      <c r="K6" t="s">
-        <v>61</v>
+      <c r="M6" t="n">
+        <v>1013</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I7" t="n">
         <v>100</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>100</v>
+      </c>
+      <c r="L7" t="n">
         <v>1051</v>
       </c>
-      <c r="K7" t="s">
-        <v>67</v>
+      <c r="M7" t="n">
+        <v>1051</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0000000296</v>
+      </c>
+      <c r="K8" t="n">
+        <v>95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>32</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1051</v>
+      </c>
+      <c r="N8" t="s">
         <v>70</v>
-      </c>
-      <c r="I8" t="n">
-        <v>100</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1051</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0000000296</v>
+      </c>
+      <c r="K9" t="n">
+        <v>95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>32</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1051</v>
+      </c>
+      <c r="N9" t="s">
         <v>70</v>
-      </c>
-      <c r="I9" t="n">
-        <v>100</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1051</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
         <v>99.899</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>100</v>
+      </c>
+      <c r="L10" t="n">
         <v>987</v>
       </c>
-      <c r="K10" t="s">
-        <v>72</v>
+      <c r="M10" t="n">
+        <v>987</v>
+      </c>
+      <c r="N10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I11" t="n">
         <v>99.907</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" t="n">
         <v>1074</v>
       </c>
-      <c r="K11" t="s">
-        <v>74</v>
+      <c r="M11" t="n">
+        <v>1074</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I12" t="n">
         <v>99.445</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>99</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1082</v>
+      </c>
+      <c r="M12" t="n">
         <v>1083</v>
       </c>
-      <c r="K12" t="s">
-        <v>77</v>
+      <c r="N12" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1476,495 +1665,630 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
         <v>99.712</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
         <v>1042</v>
       </c>
-      <c r="K2" t="s">
-        <v>83</v>
+      <c r="M2" t="n">
+        <v>1042</v>
+      </c>
+      <c r="N2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I3" t="n">
         <v>99.714</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" t="n">
         <v>1048</v>
       </c>
-      <c r="K3" t="s">
-        <v>88</v>
+      <c r="M3" t="n">
+        <v>1048</v>
+      </c>
+      <c r="N3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I4" t="n">
         <v>99.714</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" t="n">
         <v>1048</v>
       </c>
-      <c r="K4" t="s">
-        <v>88</v>
+      <c r="M4" t="n">
+        <v>1048</v>
+      </c>
+      <c r="N4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I5" t="n">
         <v>99.507</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>98</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1014</v>
+      </c>
+      <c r="M5" t="n">
         <v>1033</v>
       </c>
-      <c r="K5" t="s">
-        <v>95</v>
+      <c r="N5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I6" t="n">
         <v>99.898</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" t="n">
         <v>982</v>
       </c>
-      <c r="K6" t="s">
-        <v>99</v>
+      <c r="M6" t="n">
+        <v>982</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I7" t="n">
         <v>99.898</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>100</v>
+      </c>
+      <c r="L7" t="n">
         <v>982</v>
       </c>
-      <c r="K7" t="s">
-        <v>99</v>
+      <c r="M7" t="n">
+        <v>982</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I8" t="n">
         <v>99.49</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>99</v>
+      </c>
+      <c r="L8" t="n">
+        <v>980</v>
+      </c>
+      <c r="M8" t="n">
         <v>981</v>
       </c>
-      <c r="K8" t="s">
-        <v>107</v>
+      <c r="N8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I9" t="n">
         <v>100</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L9" t="n">
         <v>970</v>
       </c>
-      <c r="K9" t="s">
-        <v>110</v>
+      <c r="M9" t="n">
+        <v>970</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I10" t="n">
         <v>100</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>100</v>
+      </c>
+      <c r="L10" t="n">
         <v>970</v>
       </c>
-      <c r="K10" t="s">
-        <v>110</v>
+      <c r="M10" t="n">
+        <v>970</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I11" t="n">
         <v>99.678</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" t="n">
         <v>933</v>
       </c>
-      <c r="K11" t="s">
-        <v>112</v>
+      <c r="M11" t="n">
+        <v>933</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I12" t="n">
         <v>99.804</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
+      <c r="L12" t="n">
         <v>1021</v>
       </c>
-      <c r="K12" t="s">
-        <v>115</v>
+      <c r="M12" t="n">
+        <v>1021</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I13" t="n">
         <v>99.804</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
+      <c r="L13" t="n">
         <v>1021</v>
       </c>
-      <c r="K13" t="s">
-        <v>115</v>
+      <c r="M13" t="n">
+        <v>1021</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I14" t="n">
         <v>99.804</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>100</v>
+      </c>
+      <c r="L14" t="n">
         <v>1021</v>
       </c>
-      <c r="K14" t="s">
-        <v>115</v>
+      <c r="M14" t="n">
+        <v>1021</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I15" t="n">
         <v>99.804</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
+      <c r="L15" t="n">
         <v>1021</v>
       </c>
-      <c r="K15" t="s">
-        <v>115</v>
+      <c r="M15" t="n">
+        <v>1021</v>
+      </c>
+      <c r="N15" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Résultats/combined_dataMorlaix.xlsx
+++ b/Résultats/combined_dataMorlaix.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t xml:space="preserve">qseqid</t>
   </si>
@@ -59,21 +59,36 @@
     <t xml:space="preserve">sequence</t>
   </si>
   <si>
+    <t xml:space="preserve">MG107_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudomonadota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gammaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alteromonadales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shewanellaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shewanella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shewanella denitrificans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTGAGCGTCCTCCCGAAGGTTAGACTACCCACTTCTTTTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCACGGAGTCGAGTTGCAGACTCCGATCCGGACTACGACGAGCTTTGTGAGATTAGCTCCACCTCGCGGCTTTGCAACCCTCTGTACTCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTAGAGTTCCCACCATTACGTGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCACAGTTCCCGAAGGCACACCTGCATCTCTGCTGGCTTCTGTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTGGGAGCCCAGTGCTCAAGGCACCAAACTCCGAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTGCATGAGCGTCAGTCTTTGTCCAGGAGGCCGCCTTCGCCACCGGTATTCCTTCAGATATCTACGCATTTCACCGCTACACCTGAAATTCTACCTCCCTCTACAAGACTCTAGTTTGCCAGTTCCAAATGCAATTCCCAGGTTGAGCCCGGGGCTTTCACATCTGGCTTAACAAACCGCCTGCGCACGCTTTACGCCCAGTAATTCCGATTAACGCTCGGACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTCCTTCTTCTGTCAGTAACGTCACAGCAACAGGGTATTAAACTGCTACCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCAACACGCGGCATGGCTGCATCAGGGTTTCCCCCATTGTGCAATATTCCCNACTGCTGCCTCCCGTAGGAGTCGGGACCGGGTCTCAGTTCCAGTGTGGCTGA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MG108-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudomonadota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gammaproteobacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alteromonadales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pseudoalteromonadaceae</t>
   </si>
   <si>
@@ -92,21 +107,168 @@
     <t xml:space="preserve">Pseudoalteromonas translucida</t>
   </si>
   <si>
+    <t xml:space="preserve">MG112_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteroidota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavobacteriales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavobacteriaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenacibaculum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenacibaculum gallaicum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCTTGGCGGTAACCGACTTCAGGCACCCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGGATCATGGCTGATATCCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATATGGTTTATAGATTCGCTCCTATTCGCATAGTGGCTGCTCATTGTCCATACCATTGTAGCACGTGTGTAGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCGCGGTTTGCACCGGCAGTCTCGCTAGAGTCCTCAGCATTACCTGCTAGCAACTAACGATAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAAAGTGTCCGAAGAAAATCCGATCTCTCAGACTGTCACTCTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAATCTTGCGATCGTACTCCCCAGGTGGGACACTTATCACTTTCGCTTAGTCACTGAATCTAAATCCAACAACTAGTGTCCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATGAGCGTCAGTATATACGTAGTAGACTGCCTTCGCAATCGGTATTCTAAGTAATATCTATGCATTTCACCGCTACACTACTTATTCTATCTACTTCCGTATAACTCAAGTCAACCAGTATCAAAGGCAGTTCCATAGTTAAGCTATGGGATTTCACCTCTGACTTAATTGACCGCCTGCGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTATTCTTACAGTACCGTCAGTTAGTTACACGTAACTAAGTTTCTTCCTGTATAAAAGCAGTTTACAACCCATAGGGCAGTCTTCCTGCACGCGGCATGGCTGGTTCAGAGTTGCCTCCATTGACCAATATTCCTCACTGCTGCCTCCCGTAGGAATCTGGTCCGTGTCTCAGTACCAGTGTGGGGGATAATCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG116_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonlabens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonlabens xylanidelens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGGAGCTCCTTGCGGTCACCGACTTCAGGCACCCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATGGCTGATATGCGATTACTAGCGATTCCAGCTTCACGTAGTCGAGTTGCAGACTACGATCCGAACTGAGATAGGGTTTGTAGATTCGCTCCTTCTCACGAAGTGGCTGCTCTCTGTCCCTACCATTGTAGCACGTGTGTGGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACGGTTTGCACCGGCAGTCTCACTAGAGTCCCCGACATGACTCGCTGGCAACTAGTAATAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGCAAATTGTCCGAAGAAAAGTCTATTTCTAAACCTGTCAATCTGCATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGTTACTTATCACTTTCGCTTGGCCACTCAGTACTTAATCGTACCAAACAGCTAGTAACCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTACCCACGCTTTCGTCCATCAGCGTCAATATATTGTTAGTGATCTGCCTTCGCAATTGGTATTCTATGTAATATCTAAGCATTTCACCGCTACACTACATATTCTAACCACTTCACAATAATTCAAGACTAACAGTATCAATGGCAGTGCCGGAGTTAAGCCCCTGCATTTCACCACTGACTTATTAGCCCGCCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTATTCTTACGGTACCGTCAAATATCTACACGTAGATATATTTCTTCCCGTACAAAAGTAGTTTACAACCCATAGGGCCGTCTTCCTACACGCGGCATGGCTGGATCAGGCTTCCGCCCATTGTCCATATTCCTCACTGCTGCCTCCCGTAGGAGTCTGGTCCGTGTCTCAGTACCAGTGTGGGGGATCTCCTCTCAGGACCCTACCTATCGTAACCATGGTAAGCCGTTACCTTACATCCAGCTAAAAGGAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG123_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyphomicrobiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stappiaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudovibrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudovibrio ascidiaceicola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTACGTGGGTCGCCTGCCTCCCTTGCGGGTTAGCGCAGCGCCTTCGGGTAAAACCAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATGCTGTTACGCGATTACTAGCGATTCCAACTTCATGCTCTCGAGTTGCAGAGAACAATCCGAACTGAGACGGCTTTTAGAGATTAGCTACCCCTCGCGAGGTCGCTGCCCACTGTCACCGCCATTGTAGCACGTGTGTAGCCCAGCCCGTAAGGGCCATGAGGACTTGACGTCATCCCCACCTTCCTCCGGCTTATCACCGGCAGTCCCCCTAGAGTGCCCAACTAAATGCTGGCAACTAAGGGCGAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTCCTGACGTCCCCGAAAGGAACCAACCGTCTCCGGTTGTAGCGTCAAATGTCAAGGGCTGGTAAGGTTCTGCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGAATGCTTAATGCGTTAGCTGCGTCACCAAATAGCAAGCTACCTGACAACTAGCATTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACCTCAGCGTCAGTATCGAGCCAGTGAGCCGCCTTCGCCACTGGTGTTCTTCCGAATATCTACGAATTTCACCTCTACACTCGGAGTTCCACTCACCTCTCTCGATCTCAAGACTGACAGTATCAAAGGCAGTTCCAAGGTTGAGCCTTGGGATTTCACCCCTAACTTATCAGTCCGCCTACGTACTCTTTACGCCCAGTGATTCCGAACAACGCTAGCCCCCTTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGGGCTTCTTCTGCAGTTAATGTCATTATCTTCACTGCTGAAAGTGCTTTACAACCCTAAGGCCGTCATCACACACGCGGCATGGCTGGATCAGGGTTGCCCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGTGTCTCAGTCCCAGTGTGGCTGATCATCCTCTCAGACCAGCTATAGATCGTCGCCTTGGTAAGCCATTACCTTACCAACTAGCTAATCTAACGCGGGCCAATCTCATGGCCAATAAATCTTTCCCCCATAGGGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG131_3_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhodobacterales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paracoccaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoonia ponticola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTGGGTCNGCTGCCTCCAAAGGTTAGCGCACGGCCGTCGAGGTATAACCAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATGCTGTTACGCGATTACTAGCGATTCCGACTTCATGGGGTCGAGTTGCAGACCCCAATCCGAACTGAGACATCTTTTGGAGATTAACTCACTGTAGATGCCATTGTAGCACGTGTGTAGCCCAACCCGTAAGGGCCATGAGGACTTGACGTCATCCACACCTTCCTCCCGCTTATCACGGGCAGTTTCTCTAGAGTGCCCAGCTTAACCTGCTGGCAACTAAAGATGTGGGTTGCGCTCGTTGCCGGACTTAACCGAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTCACTATGTCCCGTAAAGGAAAACCAGATCTCTCTGGCGGTCATAGGATGTCAAGGGTTGGTAAGGTTCTGCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGAATGCTTAATCCGTTAGGTGTGACACCAAAGGGCAAGCCCCCTGACGTCTGGCATTCATCGTTTACGGTGTGGACTACCAGGGTATCTAATCCTGTTTGCTCGCCACACTTTCGCACCTCAGCGTCAGTATCGAGCCAGTAAGCCGCCTTCGCCACTGGTGTTCCTCCGAATATCTACGAATTTCACCTCTACACTCGGAATTCCACTTACCTCTCTCGAACTCTAGACCAACAGTATTAAAGGCAGTTCCAGGGTTGAGCCCTGGGATTTCACCTCTAACTTATTGATCCGCCTACGTGCGCTTTACGCCCAGTAATTCCGAACAACGCTAACCCCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGGGTTTCTTTACCAGGTACTGTCATTATCATCCCTGGCGAAAGAGCTTTACGATCCTAAGACCTTCGTCACTCACGCGGCATCGCTAAATCAGGCTTGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG135_3_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibrionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibrionaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibrio hibernica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAAGGTTAAACTACCTACTTCTTTTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTTTGGGATTCGCTCACTATCGCTAGCTTGCTGCCCTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTGGAGTTCCCGACATTACTCGCTGGCAAACAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTTAGAGTTCCCGAAGGCACACCTGCGTCTCCGCTGGCTTCTCTAGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGTCTACTTAACGCGTTAGCTCCGAAAGCCACGGCTCAAGGCCACAACCTCCAAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCATCTGAGTGTCAGTATCTGTCCAGGGGGCCGCCTTCGCCACTGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCTACAGTACTCTAGTTTGCCAGTTTCAAATGACCTTCCGAGGTTGAGCCCCGGGCTTTCACATCTGACTTAACAAACCACCTGCATGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTTGCTAACGTCAAGCAACGCAGCTATTAACTACGAAACCTTCCTCACAACTGAAAGTACTTTACAACCCGAAGGCCTTCTTCATACACGCGGCATGGCTGCATCAGGCTTTCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG136_3_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paracoccus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paracoccus aquimaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGCCGCCTGCCCCCCGAAAGGTTAGCGCAGCGTCGTCGGGTAGAACCAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGGCATGCTGTTCCGCGATTACTAGCGATTCCAACTTCATGCTCTCGAGTTGCAGAGAACAATCCGAACTGAGATGGCTTTTTGGGATTAACCCACTGTCACCACCATTGTAGCACGTGTGTAGCCCAACCCGTAAGGGCCATGAGGACTTGACGTCATCCACACCTTCCTCCGACTTATCATCGGCAGTTTCCATAGAGTGCCCAACTGAATGCTGGCAACTAGGGACGTGGGTTGCGCTCGTTGCCGGACTTAACCGAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTGATATCCAGCCGAACTGAAAGCTCCGTCTCCGGAGCCGCGATATCCATGTCAAGGGTTGGTAAGGTTCTGCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGAATGCTTAATCCGTTAGGTGTGTCACCGAATTGCATGCAACCCGACGACTGGCATTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTCAGCGTCAGTATCGAGCCAGTGAGCCGCCTTCGCCACTGGTGTTCCTCCGAATATCTACGAATTTCACCTCTACACTCGGAATTCCACTCACCTCTCTCGAACTCTAGACTGATAGTTTTGGAGGCAGTTCCGAGGTTGAGCCCCGGGATTTCACCCCCAACTTTCCAATCCGCCTACGTGCGCTTTACGCCCAGTAATTCCGAACAACGCTAGCCCCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGGGCTTCTTCTGCTGGTACCGTCATTATCTTCCCAGCTGAAAGAGCTTTACAACCCTAAGGCCTTCATCACTCACGCGGCATGGCTAGATCAGGGTTGCCCCCATTGTCTAAGATTCCCCACTGCTGCTCCCNGTAGGAGTCTGGGCCGGGTCTCAATCCCAGTGGGGCTGATCATCCTCTCAAACCAGCTATGGATCGTCGGCTTGGTAGGCCATTACCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG138_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGGTCGCCTGCCTCCCTTGCGGGTTAGCGCAGCGCCTTCGGGTAAACCAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATGCTGTTACGCGATTACTAGCGATTCCAACTTCATGCTCTCGAGTTGCAGAGAACAATCCGAACTGAGACGGCTTTTAGAGATTAGCTACCCCTCGCGAGGTCGCTGCCCACTGTCACCGCCATTGTAGCACGTGTGTAGCCCAGCCCGTAAGGGCCATGAGGACTTGACGTCATCCCCACCTTCCTCCGGCTTATCACCGGCAGTCCCCCTAGAGTGCCCAACTAAATGCTGGCAACTAAGGGCGAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTCCTGACGTCCCCGAAAGGAACCATCTGTCTCCAGATGTAGCGTCAAATGTCAAGGGCTGGTAAGGTTCTGCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGAATGCTTAATGCGTTAGCTGCGTCACCAAATAGCAAGCTACCTGACAACTAGCATTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACCTCAGCGTCAGTATCGAGCCAGTGAGCCGCCTTCGCCACTGGTGTTCTTCCGAATATCTACGAATTTCACCTCTACACTCGGAGTTCCACTCACCTCTCTCGATCTCAAGACTGACAGTATTAAAGGCAGTTCCAAGGTTGAGCCTTGGGATTTCACCCCTAACTTATCAGTCCGCCTACGTACTCTTTACGCCCAGTGATTCCGAACAACGCTAGCCCCCTTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGGGCTTCTTCTGCAGTTAATGTCATTATCTTCACTGCTGAAAGTGCTTTACAACCCTAAGGCCGTCATCACACACGCGGCATGGCTGGATCAGGGTTGCCCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGTGTCTCAGTCCCAGTGTGGCTGATCATCCTCTCAAACCAGCTATAGATCGTCGCCTTGGGAAGCCATTACCTTACCAACTAGCTAAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG141_3_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actinomycetota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actinomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micrococcales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microbacteriaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salinibacterium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salinibacterium amurskyense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTCCCTCCTTGCGGTTGGGCCACTGGGCTTCGGGTGTTACCGACTTTCATGACTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAGCGTTGCTGATCTGCGATTACTAGCGACTCCGACTTCATGAGGTCGAGTTGCAGACCTCAATCCGAACTGAGACCGACTTTTTGGGATTCGCTCCACCTCGCGGTATTGCAGCCCTTTGTATCGGCCATTGTAGCATGCGTGAAGCCCAAGACATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGAGTTGACCCCGGCAGTCTCCTTTGAGTTCCCACCATTACGTGCTGGCAACAAAGAACGAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTTTACGAGTGTCCAAAGAGTGAACTATTTCTAGCCCGTTCTCGTATATGTCAAGTCTTGGTAAGGTTCTTCGCGTTGCATCGAATTAATCCGCATGCTCCGCCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAGCCTTGCGGCCGTACTCCCCAGGCGGGGAACTTAATGCGTTAGCTGCGACACAGAAACCGTGGAATGGCCCCTACATCTAGTTCCCAACGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCATGCTTTCGCTCCTCAGCGTCAGTTACGGCCCAGAGATCTGCCTTCGCCATCGGTGTTCCTCCTGATATCTGCGCATTCCACCGCTACACCAGGAATTCCAATCTCCCCTACCGCACTCTAGTCTGCCCGTACCCACTGCAGGCTGGGGGTTGAGCCCCCAGTTTTCACAGCAGACGCGACAAACCGCCTACGAGCTCTTTACGCCCAATAATTCCGGATAACGCTTGCACCCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGGTGCTTTTTCTGCAGGTACCGTCACTTTCGCTTCTTCCCTACTAAAAGAGGTTTACAACCCGAAGGCCGTCGTCCCTCACGCGGCGTTGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGACCGTGTCTCAGTTCCAGTGTGGCCGGTCACCCTCTCAGGCCGGCTACCCGTCGTAGGCTTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG149b_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceanospirillales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halomonadaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobetia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobetia litoralis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGGCCGTGTCTCAGTCCCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG150_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTGATCGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCGGGGCCGTGTCTCAGTCCCAGTGGGGCTGANCATCCTCCCANAACAGCTACGGATCGTCCGCCTGGTGAGCCATTACCTCACCAAAAAGCTAATCCG</t>
+  </si>
+  <si>
     <t xml:space="preserve">MG152-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Actinomycetota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actinomycetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micrococcales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microbacteriaceae</t>
-  </si>
-  <si>
     <t xml:space="preserve">Microbacterium</t>
   </si>
   <si>
@@ -116,6 +278,60 @@
     <t xml:space="preserve">GGCTCCCTCCACAAGGGTTAGGCCACCGGCTTCAGGTGTTACCGACTTTCATGACTTGACGGGCGGTGTGTACAAGACCCGGGAACGTATTCACCGCAGCGTTGCTGATCTGCGATTACTAGCGACTCCGACTTCATGAGGTCGAGTTGCAGACCTCAATCCGAACTGGGACCGGCTTTTTGGGATTCGCTCCACCTCGCGGTATTGCAGCCCTTTGTACCGGCCATTGTAGCATGCGTGAAGCCCAAGACATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGAGTTGACCCCGGCAGTATCCCATGAGTTCCCACCATTACGTGCTGGCAACATAGAACGAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTTTACGAGTGTCCAAAGAGTTGACTATTTCTAGCCCGTTCTCGTATATGTCAAGCCTTGGTAAGGTTCTTCGCGTTGCATCGAATTAATCCGCATGCTCCGCCGCTTGTGCGGGTCCCCGTCAATTCCTTTGAGTTTTAGCCTTGCGGCCGTACTCCCCAGGCGGGGAACTTAATGCGTTAGCTGCGTCACGGAATCCGTGGAATGGACCCCACAACTAGTTCCCAACGTTTACGGGATGGACTACCAGGGTATCTAAGCCTGTTTGCTCCCCATCCTTTCGCTCCTCAGCGTCAGTTACGGCCCAGAGATCTGCCTTCGCCATCGGTGTTCCTCCTGATATCTGCGCATTCCACCGCTACACCAGGAATTCCAATCTCCCCTACCGCACTCTAGTCTGCCCGTACCCACTGCAGGCTGGAGGTTGAGCCTCCAGTTTTCACAGCAGACGCGACAAACCGCCTACGAGCTCTTTACGCCCAATAATTCCGGATAACGCTTGCGCCCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGGCGCTTTTTCTGCGAGTACCGTCACTTTCGCTTCTTCCTCGCTAAAAGAGGTTTACAACCCGAAGGCCGTCGTCCCTCACGCGGCGTTGCTGCATC</t>
   </si>
   <si>
+    <t xml:space="preserve">MG156_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudoalteromonas elyakovii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACTCTCGCGAGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCGGGGTATCTAATCCCGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGCTAGCAGGTATTAACTACTAACCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGGCCGTGTCTCAGTCCCAGTGTGGCTGATCATCCTCTCAAACCAGCTAGGGATCGTTGCCTTGGTGAGCCATTACCTCCCCAACTAGCTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudoalteromonas distincta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG157_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudoalteromonas hodoensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATTCTGATATGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACTCTCGCGAGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAGCCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGCTAGCAGGTATTAACTACTAACCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGTGTCTCAGTCCCAGTGGGGCTGATCATCCTCTCAAACAAGCTAGGGATCGTTGCCTTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG158_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alteromonadaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraglaciecola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraglaciecola chathamensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTAACCGTCCTCCCGAAGGTTAAACTAGCTACTTCTTTTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAACATTCTGATTTGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGAGCTTTAAGGGATCCGCTTACTCTCGCAAGTTTGCTTCCCTCTGTACTCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTGCCCAACTTAAGGCTGGCAACTAAGGACAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTATCTGAGTTCCCGAAGGCACCAAAGCATCTCTGCTAAGTTCTCAGTATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTATCGCGTTAGCTTCGCTACTCACGGATTAAATCCACAAACAGCTAGTAGACAGCGTTTACGGTGTGGACTACCAGGGTATCTAATCCTGTTCGCTACCCACACTTTCGCACATGAGCGTCAGTTACTGACCAGGGAGTCGCCTTCGCCACTGATGTTCCTCCAGATATCTACGCATTTCACCGCTACACCTGGAATTCCACTCCCCTCTCCAAAACTCTAGCCTGCCAGTTCTAAATGCAATTCCCAGGTTGAGCCCAGGGCTTTCACATCTAGCTTAACAAACCGCCTGCGTGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGGACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTCCTTCTTCTGTTGCTAACGTCACAGCTAACGGGTATTAACCGTTAACCTTTCCTCACAACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGGTTTCCCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGACCGTGTCTCAGTTCCAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG159_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATTCTGATATGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACTCTCGCGAGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAGCCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGCTAGCAGGTATTAACTACTAACCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGGCCGTGTCCCAGTCCCAGTGTGGCTGATCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG173_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polaribacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polaribacter sejongensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGCGGCTCCTTGCGGTGACCGACTTCAGGCACTCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGGATCATGGCTGATATCCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATATGGTTTATAGATTCGCTCTCTGTTGCCAGATGGCTGCTCATTGTCCATACCATTGTAGCACGTGTGTGGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACTACTTGCGTAGGCAGTCTCGTTAGAGTCCCCAACTTTACTTGATGGCAACTAACGACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAATCTGTCCGAAGAAAACTCTATCTCTAAAGCTGTCAGACTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGTCTTGCGACCGTACTCCCCAGGTGGGATACTTATCACTTTCGCTTAGTCACTGAGCTAATGCCCAACAACTAGTATCCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCCTCAGCGTCAGTACATACGTAGTAGACTGCCTTCGCAATCGGTATTCTGTGTAATATCTATGCATTTCACCGCTACACTACACATTCTATCTACTTCCATATGACTCAAGTCAACCAGTATCAAAGGCAGTTCCATAGTTGAGCTATGGGATTTCACCTCTGACTTAATCGACCGCCTGCGGACCCTTTAAACCCAATGATTCCGGATAACGCTCGGACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTCCTTATTCTTACAGTACCGTCAAGCTGGTATACATACCAGTGTTTCTTCCAGTAAAAAAGAAGTTTACAACGCATAGGGCAGTCATCCTTCACGCGGCATGGCTGGGTCACAGTTGCCTCCATTGCCCAAAATCCTGCCTGCTGCCTCCCGTAGGAGTCTGGTCCGTG</t>
+  </si>
+  <si>
     <t xml:space="preserve">MG174-Premixed.ab1</t>
   </si>
   <si>
@@ -149,6 +365,30 @@
     <t xml:space="preserve">GTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACCTTCGCAGGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGTTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGCTAGCAGGTATTAACTACTAACCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTT</t>
   </si>
   <si>
+    <t xml:space="preserve">MG175_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACCTTCGCAGGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGTTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGCTAGCAGGTATTAACTACTAACCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGGCCGTGTCTCAGTCCCAGTNTGGCTGATCATCCTCTCAAACCAGCTAGGGATCGTCCCCTTGGTGAGCCATTACCTCACCAACTAGCTAATCCCCCTTGGGCCAAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG176_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterobacterales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yersiniaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahnella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahnella victoriana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGTGGTAAGCGCCCTCCCGAAGGTTAAGCTACCTACTTCTTTTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACATACTTTATGAGGTCCGCTTGCTCTCGCGAGTTTGCTTCTCTTTGTATATGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTTGAGTTCCCGACATTACTCGCTGGCAACAAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACTAAGCTATCTCTAGCGAATTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCGACTTAACGCGTTAGCTCCGGAAGCCACGCCTCAAGGGCACAACCTCCAAGTCGACATCGTTTACAGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTCCAGATCTCTACGCATTTCACCGCTACACCTGGAATTCTACCCCCCTCTACAAGACTCTAGCTTGCCAGTTTCAAATGCAGTTCCCAAGTTAAGCTCGGGGATTTCACATCTGACTTAACAAACCGCCTGCGTGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTAACGTCAATGTTCAGTGCTATTAACACTGAACCCTTCCTCCTCGCTGAAAGTGCTTTACAACCCTAAGGCCTTCTTCAAACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCGGGACCGGGTCTCAGTTCCAGTGNGGCTGGTCATCCTCTCAGACCAGCTAGGGATCGTCGCCTAGGTGAACCATTACC</t>
+  </si>
+  <si>
     <t xml:space="preserve">MS105-Premixed.ab1</t>
   </si>
   <si>
@@ -164,30 +404,12 @@
     <t xml:space="preserve">MS106-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Pseudoalteromonas elyakovii</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACTCTCGCGAGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCGGGGTATCTAATCCCGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGCTAGCAGGTATTAACTACTAACCTTTCCTCCTGACTGAAAGTGCTTTA</t>
   </si>
   <si>
-    <t xml:space="preserve">Pseudoalteromonas distincta</t>
-  </si>
-  <si>
     <t xml:space="preserve">MS108-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacteroidota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flavobacteriia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flavobacteriales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flavobacteriaceae</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cellulophaga</t>
   </si>
   <si>
@@ -200,33 +422,66 @@
     <t xml:space="preserve">MS110-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Alteromonadaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraglaciecola</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paraglaciecola mesophila</t>
   </si>
   <si>
     <t xml:space="preserve">TTTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAACATTCTGATTTGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGAGCTTTAAGGGATCCGCTTACTCTCGCAAGTTTGCTTCCCTCTGTACTCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTGCCCAACTTAAGGCTGGCAACTAAGGACAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTATCTAGATTCCCGAAGGCACCAATTCATCTCTGAAAAGTTTCTAGTATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTATCGCGTTAGCTTCGCTACTCACGGATTAAATCCACAAACAGCTAGTAGACAGCGTTTACGGTGTGGACTACCAGGGTATCTAATCCTGTTCGCTACCCACACTTTCGCACATGAGCGTCAGTTACTGACCAGGGAGTCGCCTTCGCCACTGATGTTCCTCCAGATATCTACGCATTTCACCGCTACACCTGGAATTCCACTCCCCTCTCCAAAACTCTAGCCTGCCAGTTCTAAATGCAATTCCCAGGTTGAGCCCAGGGCTTTCACATCTAGCTTAACAAACCGCCTGCGTGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGGACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTCCTTCTTCTGTTGCTAACGTCACAGCTAACGGGTATTAACCGTTAACCTTTCCTCACAACTGAAAGTGCTTTACAACCCGAAGGC</t>
   </si>
   <si>
+    <t xml:space="preserve">MS111_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibrio splendidus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCAAGTGGGTGAGCGTCCTCCCCGAAAGGTTAAACTACCCACTTCTTTTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGACATTCTGATTCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTTTGGGATTCGCTCACTATCGCTAGCTTGCTGCCCTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTGGAGTTCCCGACATTACTCGCTGGCAAACAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACACCTGCGTCTCCGCTGGCTTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGTCTACTTAACGCGTTAGCTCCGAAAGCCACGGCTCAAGGCCACAACCTCCAAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCATCTGAGTGTCAGTGTCTGTCCAGGGGGCCGCCTTCGCCACTGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCTACAGCACTCTAGTTCACCAGTTTCAAATGCAGTTCCGAGGTTGAGCCCCGGGCTTTCACATCTGACTTAATGAACCACCTGCATGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTTGCTAACGTCAAGAGATAACGCTATTAACGTTACCCCCTTCCTCACAACTGAAAGTACTTTACAACCCGAAGGCCTTCTTCATACACGCGGCATGGCTGCATCAGGCTTTCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGACCGTGTCNCAGTTCCAGTGTGGCTGATCATCCTNTCNAACCAGCTAGGGATCGTCGCCTTGGTGAACCATTACCTCCCAACTAGCTAATCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS112A_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olleya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olleya algicola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTCCTAGGCCGCTCCTTACGGCGACGGACTTCAGGCACTCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATGGCTGATATGCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATAGGGTTTATAGATTCGCTCCTGGTCACCCAGTGGCTGCTCTCTGTCCCTACCATTGTAGCACGTGTGTAGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACAGTTTGCACTGGCAGTCTTGTTAGAGTTCCCGACATGACTCGCTGGCAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAAATTGTCCGAAGAAAAGTCTATTTCTAAACCTGTCAATTTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGTCACTTATCACTTTCGCTTAGCCACTCAAACCTAAGTTCGAACAGCTAGTGACCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATCAGTGTCAGTATATTATTAGTAATCTGCCTTCGCAATTGGTATTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCTAACTACTTCATAATAACTCAAGACAACCAGTATCAAAGGCAATTCTACAGTTGAGCTGCAGGATTTCACCTCTGACTTAATTATCCACCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGGATCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGATCCTTATTCTTACAGTACCGTCAAGCTCTCACACGTGAGAGTGTTTCTTCCTGTATAAAAGCAGTTTACAACCCATAGGGCAGTCTTCCTGCACGCGGCATGGCTGGATCAGAGTTGCCTCCATTGTCCAATATTCCTCACTGCTGCCTCCCGTAGGAATCTGGTCCGTGTCTCAGTACCAGTGTGGGGGGATCCCCCTNTCAGGGCCCCTACCTATCGTTGCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olleya marilimosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS112B_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTAGGCCGCTCCTTACGGCGACGGACTTCAGGCACTCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATGGCTGATATGCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATAGGGTTTATAGATTCGCTCCTGGTCACCCAGTGGCTGCTCTCTGTCCCTACCATTGTAGCACGTGTGTAGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACAGTTTGCACTGGCAGTCTTGTTAGAGTTCCCGACATGACTCGCTGGCAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAAATTGTCCGAAGAAAAGTCTATTTCTAAACCTGTCAATTTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGTCACTTATCACTTTCGCTTAGCCACTCAAACCTAAGTTCGAACAGCTAGTGACCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATCAGTGTCAGTATATTATTAGTAATCTGCCTTCGCAATTGGTATTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCTAACTACTTCATAATAACTCAAGACAACCAGTATCAAAGGCAATTCTACAGTTGAGCTGCAGGATTTCACCTCTGACTTAATTATCCACCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGGATCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGATCCTTATTCTTACAGTACCGTCAAGCTCTCACACGTGAGAGTGTTTCTTCCTGTATAAAAGCAGTTTACAACCCATAGGGCAGTCTTCCTGCACGCGGCATGGCTGGATCAGAGTTGCCTCCATTGTCCAATATTCCTCACTGCTGCCTCCCGTAGGAATCTGGTCCGTGTCTCAGTACCAGTGNGGGGGATCCCCCTNTCAGGGCCCCTACCTATCGTTGCCATGGTGTGCCGTTACCCACCATCTAGCTAAAAGGACCCTAAGTCATCCCTTACCGTAACCTTTAAGGTTACTTGAGGCCAGTTAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS115_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudoalteromonas neustonica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACTCTCGCGAGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGATATGCTCTATTAAAACACACCCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCAAACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAAAATTCCCCACTGCTGCCTCCCGTAGGAGTCGGGGCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS116_3_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacillus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacillus mycoides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTTAGGCGGCTGGCTCCATAAAGGTTACCCCACCGACTTCGGGTGTTACAAACTCTCGTGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGGCATGCTGATCCGCGATTACTAGCGATTCCAGCTTCATGTAGGCGAGTTGCAGCCTACAATCCGAACTGAGAACGGTTTTATGAGATTAGCTCCACCTCGCGGTCTTGCAGCTCTTTGTACCGTCCATTGTAGCACGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCACCTTAGAGTGCCCAACTTAATGATGGCAACTAAGATCAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACTCTGCTCCCGAAGGAGAAGCTCTATCTCTAGAGTTTTCAGAGGATGTCAAGACCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGCCTTGCGGCCGTACTCCCCAGGCGGAGTGCTTAATGCGTTAACTTCAGCACTAAAGGGCGGAAACCCTCTAACACTTAGCACTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCGCCTCAGTGTCAGTTACAGACCAGAAAGTCGCCTTCGCCACTGGTGTTCCTCCATATCTCTACGCATTTCACCGCTACACATGGAATTCCACTTTCCTCTTCTGCACTCAAGTCTCCCAGTTTCCAATGACCCTCCACGGTTGAGCCGTGGGCTTTCACATCAGACTTAAGAAACCACCTGCGCGCGCTTTACGCCCAATAATTCCGGATAACGCTTGCCACCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGTGGCTTTCTGGTTAGGTACCGTCAAGGTGCCAGCTTATTCAACTAGCACTTGTTCTTCCCTAACAACAGAGTTTTACGACCCGAAAGCCTTCATCACTCACGCGGCGTTGCTCCGTCAGACTTTCGTCCATTGCGGAAGATTCCCTACTGCTGCCTCCCGTAGGAATCTGGGCCGGGTNTCAGTCCCAGTGGGGCCGATCACCCTNTCAGGTCGGCTACGCATCGTCGCCTTGGTGAACCGTTAC</t>
+  </si>
+  <si>
     <t xml:space="preserve">MS118-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Oceanospirillales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halomonadaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobetia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobetia litoralis</t>
-  </si>
-  <si>
     <t xml:space="preserve">GCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTT</t>
   </si>
   <si>
@@ -239,12 +494,33 @@
     <t xml:space="preserve">Thalassomonas haliotis</t>
   </si>
   <si>
+    <t xml:space="preserve">MS124_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychromonadaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychromonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychromonas aquatilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCGTGGTCATCGCCATCCCGAAGGTTAAGCTAATGACTTCTGGTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCAACTTCACGGAGTCGAGTTGCAGACTCCGATCCGGACTACGACAAACTTTAGGAGATTCGCATACCATCGCTGGTTAGCTGCCCTTTGTATTTGCCATTGTAGCACGTGTGTAGCCCATCCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTGTCCCTAGAGTTCCCGGCATAACCCGCTGGCAAATAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACTCTACTATCTCTAACAGATTCTCTGGATGTCAAGGGATGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTATTTAATGCGTTAGCTTTGAATCCCACGGCATATAGCCACAAAATTCTAATAGACATCGTTTACTGCGTGGACTACCGGGGTATCTAATCCCGTTTGCTCCCCACGCCTTCGCGCCTCAGCGTCAGTCTTTGTCCAGGTGGCCGCCTTCGCCACTGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTACAAAACTCTAGTTAACCAGTTTCAAATGCAGTTCCAAGGTTGAGCCCTGGGATTTCACATCTGACTTAATTAACCGCCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTAACGTCACAGATGCACTCTATTAAAGTACACCCTTTCCTCCTCGCTGAAAGTGCTTTACAACCCGAAAGCCTTCTTCANACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATNTTCCCCACTGCTGCCTCCCGTAGGAATCTGGACCGTGTCTCAGTTCCAG</t>
+  </si>
+  <si>
     <t xml:space="preserve">MS127-Premixed.ab1</t>
   </si>
   <si>
     <t xml:space="preserve">ACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACCTTCGCAGGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCGGGGTATCTAATCCCGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGC</t>
   </si>
   <si>
+    <t xml:space="preserve">MS128_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGTGTCTCAGTCCCAGNTGGCTGAACATCCTCTNGAACAGCTACGGATCGTCGCCTTGGTGACCATTAC</t>
+  </si>
+  <si>
     <t xml:space="preserve">MS129-Premixed.ab1</t>
   </si>
   <si>
@@ -260,24 +536,36 @@
     <t xml:space="preserve">TAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACCTTCGCAGGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGTTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCGGGGTATCTAATCCCGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGATGTGAGGTATTAACTCACACCCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTT</t>
   </si>
   <si>
+    <t xml:space="preserve">MS96B_3_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zobellia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zobellia roscoffensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGCTCCTTACGGTGACGGGACTTCAGGCACTCCCGGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGGATCATGGCTGATATCCGATTACTAGCGATTCCAGCTTCACGGGGTCGAGTTGCAGACCCCGATCCGAACTGTGACCGGTTTTGTGGATCCGCTCTGCGTTACCGCATGGCTTCCCGCTGTACCGGCCATTGTAGCACGTGTGTGGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCGTCCCCACCTTCCTCACGGTTTGCACCGGCAGTCCCGTTAGAGTCCCCGACATGACTCGCTGGCAACTAACGGTAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGCAAATTGCCCGAAGGAAAAGGTATCTCTACCCCTGTCAATATGCATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGATACTTATCACTTTCGCTTGGCCGCCCAGGACTCAAGGTCCCGGACAGCTAGTATCCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATCAGCGTCAGTATATAGTTAGTCACCTGCCTTCGCAATCGGTGTTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCCGGCAACTTCACTATAACTCAAGACTAACAGTATCAAAGGCAATTTTACAGTTGAGCTGCAAACTTTCACCACTGACTTATCAGCCCGCCTACGGACCCTTTAAACCCAATAATTCCGGATAACGCTCGGACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTCCTTATTCTTACGGTACCGTCAGTGGGCTACACGTAGCCCTTTTTCTTCCCGTATAAAAGCAGTTTACTACCCATAGGGCATTCTTCCTGCACGCGGCATGGCTGGATCAGGCTCCCGCCCATTGTCCAATATTCCTCACTGCTGCCTCCCGTAGGAGTCTGGTCCGTGTCTCAGTACCAGTGGGGGGGATCCCCCTCTCAGGGCCCCTACCCATCGCGGTCTTGGTGAACCGTTCCTCGCCAACAACTAATGGGACGNTACCCATCCCTACCGAACCTTTAACCAAAAAACAAGGCCGAAAAGGGACC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS98_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAGTGGTGAGCGTCCTCCCCGAAAGGTTAAACTACCCACTTCTTTTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGACATTCTGATTCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTTTGGGATTCGCTCACTATCGCTAGCTTGCTGCCCTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTGGAGTTCCCGACATTACTCGCTGGCAAACAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGCTCCCGAAGGCACACCTGCGTCTCCGCTGGCTTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGTCTACTTAACGCGTTAGCTCCGAAAGCCACGGCTCAAGGCCACAACCTCCAAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCATCTGAGTGTCAGTGTCTGTCCAGGGGGCCGCCTTCGCCACTGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCTACAGCACTCTAGTTCACCAGTTTCAAATGCAGTTCCGAGGTTGAGCCCCGGGCTTTCACATCTGACTTAATGAACCACCTGCATGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTTGCTAACGTCAAGAGATAACGCTATTAACGTTACCCCCTTCCTCACAACTGAAAGTACTTTACAACCCGAAGGCCTTCTTCATACACGCGGCATGGCTGCATCAGGCTTTCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGACCGTGTCTCAGTTCCAGTGTGGCTGATCATCCTCTCAAA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME115-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Vibrionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vibrionaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vibrio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vibrio splendidus</t>
-  </si>
-  <si>
     <t xml:space="preserve">GCGTCCTCCCCGAAAGGTTAAACTACCCACTTCTTTTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGACATTCTGATTCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTTTGGGATTCGCTCACTATCGCTAGCTTGCTGCCCTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTGGAGTTCCCGACATTACTCGCTGGCAAACAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACACCTGCGTCTCCGCTGGCTTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGTCTACTTAACGCGTTAGCTCCGAAAGCCACGGCTCAAGGCCACAACCTCCAAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCATCTGAGTGTCAGTGTCTGTCCAGGGGGCCGCCTTCGCCACTGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCTACAGCACTCTAGTTCACCAGTTTCAAATGCAGTTCCGAGGTTGAGCCCCGGGCTTTCACATCTGACTTAATGAACCACCTGCATGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTTGCTAACGTCAAGAGATAACGCTATTAACGTTACCCCCTTCCTCACAACTGAAAGTACTTTACAACC</t>
   </si>
   <si>
+    <t xml:space="preserve">ME15_3_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGACAAGCTCCCTCCTTGCGGTTGGGCCACTGGGCTTCGGGTGTTACCGACTTTCATGACTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAGCGTTGCTGATCTGCGATTACTAGCGACTCCGACTTCATGAGGTCGAGTTGCAGACCTCAATCCGAACTGAGACCGACTTTTTGGGATTCGCTCCACCTCGCGGTATTGCAGCCCTTTGTATCGGCCATTGTAGCATGCGTGAAGCCCAAGACATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGAGTTGACCCCGGCAGTCTCCTTTGAGTTCCCACCATTACGTGCTGGCAACAAAGAACGAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTTTACGAGTGTCCAAAGAGTGAACTATTTCTAGCCCGTTCTCGTATATGTCAAGTCTTGGTAAGGTTCTTCGCGTTGCATCGAATTAATCCGCATGCTCCGCCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAGCCTTGCGGCCGTACTCCCCAGGCGGGGAACTTAATGCGTTAGCTGCGACACAGAAACCGTGGAATGGCCCCTACATCTAGTTCCCAACGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCATGCTTTCGCTCCTCAGCGTCAGTTACGGCCCAGAGATCTGCCTTCGCCATCGGTGTTCCTCCTGATATCTGCGCATTCCACCGCTACACCAGGAATTCCAATCTCCCCTACCGCACTCTAGTCTGCCCGTACCCACTGCAGGCTGGGGGTTGAGCCCCCAGTTTTCACAGCAGACGCGACAAACCGCCTACGAGCTCTTTACGCCCAATAATTCCGGATAACGCTTGCACCCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGGTGCTTTTTCTGCAGGTACCGTCACTTTCGCTTCTTCCCTACTAAAAAGAGGTTTACAACCCGAAGGCCGTCGTCCCTCACGCGGCGTTGCTGCATCAGGCTTGCGCCCATTGGGCAATATTCCCCCCGGCTGCCTCCCGTAGGAATCTGGACCGGGTCNCAGTTCCATGTGGGCCGGTCCCCCCTC</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME20-Premixed.ab1</t>
   </si>
   <si>
@@ -293,18 +581,30 @@
     <t xml:space="preserve">CTCCCTCCCTTGCGGGTTAGGCCGTTGGCTTCGGGTGTTACCGACTTTCGTGACTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAGCGTTGCTGATCTGCGATTACTAGCGACTCCAACTTCATGAGGTCGAGTTGCAGACCTCAATCCGAACTGAGACCGGCTTTTTGGGATTCGCTCCACCTTGCGGTATCGCAGCCCTTTGTACCGGCCATTGTAGCATGCGTGAAGCCCAAGACATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGAGTTGACCCCGGCAGTCTCCTATGAGTCCCCACCATTACGTGCTGGCAACATAGAACGAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTATACAGCCCCGAAGGACTCCCTATCTCTAGAGATAAACCGTATATGTCAAGCCTTGGTAAGGTTCTTCGCGTTGCATCGAATTAATCCGCATGCTCCGCCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAGCCTTGCGGCCGTACTCCCCAGGCGGGGCACTTAATGCGTTAGCTGCGACGCGGAACTCATGGAAAGAGCCCCACATCTAGTGCCCACCGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCATGCTTTCGCTCCTCAGCGTCAGTTATGGCCCAGAGACCTGCCTTCGCCATTGGTGTTCCTCCTGATATCTGCGCATTCCACCGCTACACCAGGAATTCCAGTCTCCCCTACCACACTCTAGTTTGCCCGTACCCACTGCAGATCCGAGGTTGAGCCTCGGACTTTCACAGCAGACGCGACAAACCGCCTACGAGCTCTTTACGCCCAATAATTCCGGACAACGCTTGCGCCCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGGCGCTTCTTCTGTAGGTACCGTCACTTTCGCTTCTTCCCTACTGAAAGGGGTTTACAACCCGAAGGCCTTCATCCCCCACGCGGCGT</t>
   </si>
   <si>
+    <t xml:space="preserve">ME2_1_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAGTGGGTGAGGCGTCCTCCCCGAAAGGTTAAACTACCCACTTCTTTTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGACATTCTGATTCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTTTGGGATTCGCTCACTATCGCTAGCTTGCTGCCCTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTGGAGTTCCCGACATTACTCGCTGGCAAACAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACACCTGCGTCTCCGCTGGCTTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGTCTACTTAACGCGTTAGCTCCGAAAGCCACGGCTCAAGGCCACAACCTCCAAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCATCTGAGTGTCAGTGTCTGTCCAGGGGGCCGCCTTCGCCACTGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCTACAGCACTCTAGTTCACCAGTTTCAAATGCAGTTCCGAGGTTGAGCCCCGGGCTTTCACATCTGACTTAATGAACCACCTGCATGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTTGCTAACGTCAAGAGATAACGCTATTAACGTTACCCCCTTCCTCACAACTGAAAGTACTTTACAACCCGAAGGCCTTCTTCATAAACGCGGCATGGCTGCATCAGGCTTTCGCCCATTGTGCAATNTTCCCCACTGCTGCCTCCCGTAGGAATCCGGAACCGTGTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME37_1_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winogradskyella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winogradskyella wichelsiae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTAGGCCGCTCCTTACGGTGACGGACTTCAGGCACTCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATGGCTGATATGCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATAGGGTTTATAGATTCGCTCCTGGTCGCCCAGTGGCTGCTCTCTGTCCCTACCATTGTAGCACGTGTGTAGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACAGTTTGCACTGGCAGTCTTGTTAGAGTTCCCGACATCACTCGCTGGCAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAGATAGTCCGAAGAAATAAGTGTCTCCACCTAATGCAATCTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGATACTTATCACTTTCGCTTAGCCACTCAGTCCGAAAACCGAACAGCTAGTATCCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATCAGTGTCAATATATTGTTAGTGATCTGCCTTCGCAATTGGTATTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCTAACCACTTCACAATAATTCAAGATAACCAGTATCAAAGGCAATTTTACAGTTGAGCTGCAAACTTTCACCCCTGACTTAATTATCCACCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGGATCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGATCCTTATTCTTACAGTACCGTCAGCTTTTCACACGTGAGAAGGTTTCTTCCTGTATAAAAGCAGTTTACAACCCATAGGGCAGTCTTCCTGCACGCGGCATGGCTGGATCAGGCTCTCGCCCATTGTCCAATATTCCTCACTGCTGCCTCCCGTAGGAGTCTGGTCCGTGTCTCAGTACCAGTGTGGGGGGATCCCCCTCTCAGGGCCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winogradskyella undariae</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME48-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Alphaproteobacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhodobacterales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paracoccaceae</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pseudorhodobacter</t>
   </si>
   <si>
@@ -314,55 +614,160 @@
     <t xml:space="preserve">GCCGCCTGCCTCCCGTAAGGGTTAGCGCAGCGTCGTCGGGTAGAACCAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATGCTGTTACGCGATTACTAGCGATTCCGACTTCATGGGGTCGAGTTGCAGACCCCAATCCGAACTGAGATAGCTTTTTGGGATTAACCCATTGTCACTACCATTGTAGCACGTGTGTAGCCCAACCCGTAAGGGCCATGAGGACTTGACGTCATCCACACCTTCCTCCGGCTTATCACCGGCAGTTCTCCTAGAGTGCCCAACTGAATGCTGGCAACTAAGAGTGTGGGTTGCGCTCGTTGCCGGACTTAACCGAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTGATATCCAGCCGAACTGAAAGCTCTGTCTCCAGAGCCGCGATATCCATGTCAAGGGTTGGTAAGGTTCTGCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGAATGCTTAATCCGTTAGGTGTGACACCAACAAGTATACTTGCTGACGTCTGGCATTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTCAGCGTCAGTATCGAGCCAGTGAGCCGCCTTCGCCACTGGTGTTCCTCCGAATATCTACGAATTTCACCTCTACACTCGGAATTCCACTCACCTCTCTCGAACTCAAGACCAGGAGTTTCAAAGGCAGTTCCAAGGTTGAGCCCTGGGATTTCACCTCTGACTTTCTGATCCGCCTACGTGCGCTTTACGCCCAGTAATTCCGAATAACGCTAGCCCCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGGGCTTCTTCTGATGGTACCGTCATTATCTTCCCATCTGAAAGATCTTTACAACCCTAAGGCCTTCATCGATCACGCGGCATGGCTAGAT</t>
   </si>
   <si>
+    <t xml:space="preserve">ME49A_3_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winogradskyella helgolandensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTACCTAGGCCGCTCCTTACGGTGACGGACTTCAGGCACTCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATGGCTGATATGCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATAGGGTTTATAGATTCGCTCCTTCTCGCGAAGTGGCTGCTCTCTGTCCCTACCATTGTAGCACGTGTGTAGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACAGTTTGCACTGGCAGTCTTGTTAGAGTTCCCATCTTTACATGCTGGCAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAGATAGTCCGAAGAAATAAGTGTCTCCACCTAATGCAATCTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGATACTTATCACTTTCGCTTAGCCACTCAGTCCGAAAACCGAACAGCTAGTATCCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATCAGTGTCAATATATTGTTAGTGATCTGCCTTCGCAATTGGTATTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCTAACCACTTCACAATAATTCAAGATAACCAGTATCAAAGGCAATTTTACAGTTGAGCTGCAAACTTTCACCCCTGACTTAATTATCCACCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGGATCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGATCCTTATTCTTACAGTACCGTCAGCTTTTCACACGTGAAAAGGTTTCTTCCTGTATAAAAGCAGTTTACAACCCATAGGGCAGTCTTCCTGCACGCGGCATGGCTGGATCAGGCTCGCGCCCATTGTCCAATATTCCTCACTGCTGCCTCCCGTAGGAATCTGGTCCGTGTCTCAGTACCAGTGTGGGGGATCCCCCTCTCAGGGCCCTATCTATCCGGGTCTTGGTAAGCCGTTACCTTACCAACTAACTAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME49B1_1_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGATCGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAAAATTCCCCACTGCTGCCTCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME49B_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTTGGGTGATCGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCCACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME49B_3_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGTGTNTCAGTCCCAGTGTGGCTGAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME4_3_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytophagia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytophagales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyclobacteriaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoriphagus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoriphagus winogradskyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTAACGGTTAACGGGCACTATCAGGTCTACCCGACTTCCATGGCTTGACGGGCGGTGTGTACAAGGTCCGGGAACGTATTCACCGCGCCATGGCTGATGCGCGATTACTAGCGATTCCAGCTTCACGGGGTCGAGTTGCAGACCCCGATCCGAACTGAGACGCACTTTTAGAGGTTGGCATCCTGTTGCCAGGTAGCTACCCGCTGTATGCGCCATTGTAGCACGTGTGTCGCCCTGGGCGTAAGGGCCATGATGACCTGACGTCGTCCCCTCCTTCCTCTCTGCTTGCGCAGGCAGTCTGTCTAGAGTCCCCACCATTACGTGCTGGCAACTAAACATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACACCTCACGGCACGAGCTGACGACGGCCATGCAGCACCTTGTTTCGGGTCATTGCTGACTGATCTGTCTCCAAATCATTCCCTCACATTCTAGCCCAGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGACCCCCGTCAATTCCTTTGAGTTTCACTCTTGCGAGCGTACTCCCCAGGTGGATTACTTAACGCTTTCGCTTGGCCGCTACAACATAAAGCCATAACAGCGAGTAATCATCGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTACCCATGCTTTCGTGCATCAGCGTCAGTTATTGGCCAGTACAATGCCTTCGCTATCGGTGTTCCTGATGGTATCTATGCATTTCACCGCTACACCATCAATTCCATGTACCCCTCCAATACTCAAGCTATCCAGTATCAATGGCACTGCTCCGGTTGAGCCGGAGTCTTTCACCACTGACTTAAATAGCCGCCTACGCACCCTTTAAACCCAATAAATCCGGACAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTATTCATCTGGTACCGGCAATTTCCCTCGCAAGGGCATTTTCTTCCCAGATAAAAGCAGTTTACAACGCAGAACGCCGTCTTCCTGCCCGCGGCATGGCTGGGTCAAACTCNCGTCCATTGCCCAAAATTCCCAACTGCTGCCTCCCGAAGGATTCGGGCCCGTATCCCAATGCCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME53A_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTGATCGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGGGTCTCAGTCCCAGTGGGGCTGATCATCCTCTCAGAACAGCTACGGATCGTCGCCTTGGTGAACCATTACCTACCAACAAGCTAATCCGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME53B_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCGTGGGTGATCGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACCCACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAATCGGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME53_1_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTGATCGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAAAATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGGGTCTCAGTCCCAGTGTGGCTGA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME56-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Winogradskyella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winogradskyella wichelsiae</t>
-  </si>
-  <si>
     <t xml:space="preserve">CTTCAGGCACTCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATGGCTGATATGCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATAGGGTTTATAGATTCGCTCCTGGTCGCCCAGTGGCTGCTCTCTGTCCCTACCATTGTAGCACGTGTGTAGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACAGTTTGCACTGGCAGTCTTGTTAGAGTTCCCGACATCACTCGCTGGCAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAGATAGTCCGAAGAAATAAGTGTCTCCACCTAATGCAATCTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGATACTTATCACTTTCGCTTAGCCACTCAGTCCGAAAACCGAACAGCTAGTATCCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATCAGTGTCAATATATTGTTAGTGATCTGCCTTCGCAATTGGTATTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCTAACCACTTCACAATAATTCAAGATAACCAGTATCAAAGGCAATTTTACAGTTGAGCTGCAAACTTTCACCCCTGACTTAATTATCCACCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGGATCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGATCCTTATTCTTACAGTACCGTCAGCTTTTCACACGTGAAAAGGTTTCTTCCTGT</t>
   </si>
   <si>
-    <t xml:space="preserve">Winogradskyella undariae</t>
+    <t xml:space="preserve">ME58_1_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roseobacteraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudosulfitobacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudosulfitobacter pseudonitzschiae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTGGGTCCGCTGCCTCCTCGAAAGGTTGGGCGCACGGCCCGTCGGGTATAACCAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATGCTGTTACCCGATTACTAGCGATTCCGACTTCATGGGGTCGAGTTGCAGACCCCAATCCGAACTGAGACATCTTTTGGGGATTAACCCACTGTAGATGCCATTGTAGCACGTGTGTAGCCCAACCCGTAAGGGCCATGAGGACTTGACGTCATCCACACCTTCCTCCCGCTTATCACGGGCAGTTTCTTTAGAGTGCCCAGCCGAACTGCTGGCAACTAAAGATGTGGGTTGCGCTCGTTGCCGGACTTAACCGAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTCACTAGGTCCCGAAGGAAGGCTCCATCTCTGGAGTTGTCCTAGGATGTCAAGGGTTGGTAAGGTTCTGCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGAATGCTTAATCCGTTACGTGTGTCACCGAACAGTATACTGCCCGACGACTGGCATTCATCGTTTACGGTGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACACTTTCGCACCTCACCGTCAGTATCGAGCCACTGAGCCGCCTTCGCCACTGGTGTTCCTCCGAATATCTACGAATTTCACCTCTACACTCGGAATTCCACTCACCTCTCTCGAACTCAAGACCAGGAATTTTGGATGCAGTTCCAGGGTTGAGCCCTGGGATTT</t>
   </si>
   <si>
     <t xml:space="preserve">ME59-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Cytophagia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytophagales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyclobacteriaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algoriphagus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algoriphagus winogradskyi</t>
-  </si>
-  <si>
     <t xml:space="preserve">GCTCCTTAACGGTTACTGCCTTCAGGTCTACCCAACTTCCATGGCTTGACGGGCGGTGTGTACAAGGTCCGGGAACGTATTCACCGCGCCATGGCTGATGCGCGATTACTAGCGATTCCAGCTTCACGGGGTCGAGTTGCAGACCCCGATCCGAACTGAGACGCACTTTTAGAGGTTGGCATCCTGTTGCCAGGTAGCTACCCGCTGTATGCGCCATTGTAGCACGTGTGTCGCCCTGGGCGTAAGGGCCATGATGACCTGACGTCGTCCCCTCCTTCCTCTCTGCTTGCGCAGGCAGTCTGTCTAGAGTCCCCACCATTACGTGCTGGCAACTAAACATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACACCTCACGGCACGAGCTGACGACGGCCATGCAGCACCTTGTTTCGGGTCATTGCTGACTGATCTGTCTCCAAACCATTCCCTCACATTCTAGCCCAGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGACCCCCGTCAATTCCTTTGAGTTTCACTCTTGCGAGCGTACTCCCCAGGTGGATTACTTAACGCTTTCGCTTGGCCGCTACAACATAAAGCCATAACAGCGAGTAATCATCGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTACCCATGCTTTCGTGCATCAGCGTCAGTTATTGGCCAGTACAATGCCTTCGCTATCGGTGTTCCTGATGGTATCTATGCATTTCACCGCTACACCATCAATTCCATGTACCCCTCCAATACTCAAGCTATCCAGTATCAATGGCACTGCTCCGGTTGAGCCGGAGTCTTTCACCACTGACTTAAATAGCCGCCTACGCACCCTTTAAACCCAATAAATCCGGACAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTATTCATCTGGTACCGGCAATTTCCCT</t>
   </si>
   <si>
+    <t xml:space="preserve">ME5A_3_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGCCGACTCCTTACGGTGACGGACTTCAGGCACTCCCGGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGGATCATGGCTGATATCCGATTACTAGCGATTCCAGCTTCACGGGGTCGAGTTGCAGACCCCGATCCGAACTGTGACCGGTTTTGTGGATCCGCTCTGCGTTACCGCATGGCTTCCCGCTGTACCGGCCATTGTAGCACGTGTGTGGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCGTCCCCACCTTCCTCACGGTTTGCACCGGCAGTCCCGTTAGAGTCCCCGACATGACTCGCTGGCAACTAACGGTAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGCAAATTGCCCGAAGGAAAAGGTATCTCTACCCCTGTCAATATGCATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGATACTTATCACTTTCGCTTGGCCGCCCAGGACTCAAGGTCCCGGACAGCTAGTATCCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATCAGCGTCAGTATATAGTTAGTCACCTGCCTTCGCAATCGGTGTTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCCGGCAACTTCACTATAACTCAAGACTAACAGTATCAAAGGCAATTTTACAGTTGAGCTGCAAACTTTCACCACTGACTTATCAGCCCGCCTACGGACCCTTTAAACCCAATAATTCCGGATAACGCTCGGACCCTCCGTATTACCTCGGCTGCTGGCACGGAGTTAGCCGGTCCTTATCTTACGGTACCGTCANTGGGCTACACGTACCCCTTTTTCTTCCGTATAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME60_1_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobetia amphilecti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGCCCTCCCGAGGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGATGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCC</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME63-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Cobetia amphilecti</t>
-  </si>
-  <si>
     <t xml:space="preserve">GTGATCGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTT</t>
   </si>
   <si>
+    <t xml:space="preserve">ME66_1_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shewanella fidelis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCGTGGGTAACGCCCTCCCGAAGGTTAAGCTATCTACTTCTGGTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACCGGCTTTGTGAGATTAGCTCCACCTCGCGGCTTCGCAACCCTCTGTACCGACCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTAAAGTTCCCACCATTACGTGCTGGCAAATAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCTCAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTGAGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTGAGAACCCAGTGTTCAAGACACCAAATTCCGAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCTACAAGACTCTAGTTTGCCAGTTCAAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTTGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME69_1_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudocolwellia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudocolwellia agarivorans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGTGGGTGACCGTCCTCCCCGAAGGGTTAAACTAGCCACTTCTTTTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACAAGCTTTGTGGGATTCGCTCCACCTCGCGGTATTGCTGCCCTCTGTACTTGCCATTGTAGCACGTGTGTAGCCCATCCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCGCCATTACGCGCTAGCAAATAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCACTACTTTCCCGAAGGCACGAAACCATCTCTGGTAACTTAGTAGGATGTCAAGGGATGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTAGCGCGTTAGCTACGCCACCCACAGATCAAGTCTACAGACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTGCCTCAGTGTCAGTATTTGTCCAGGTAGCCGCCTTCGCCACTGATGTTCCTTCCAATCTCTACGCATTTCACCGCTACACTGGAAATTCCACTACCCTCTACAATACTCTAGCTTGCCAGTTCAAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTTGCTTAACAAACCACCTACGCACGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCCTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGTGCTTCTTCTGCGAGTAACGTCACAGATGCAGAGTATTAGTCTACACCCTTTCCTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTTCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGTGTCTCAGTCCCAGTGGGGCTGATCATCCTCNCAAACCACCTAGAAAATCGTCGCCCTTGGTAA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME72-Premixed.ab1</t>
   </si>
   <si>
     <t xml:space="preserve">CCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAACATTCTGATTTGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGAGCTTTAAGGGATCCGCTTACTCTCGCAAGTTTGCTTCCCTCTGTACTCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTGCCCAACTTAAGGCTGGCAACTAAGGACAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTATCTAGATTCCCGAAGGCGCCAATTCATCTCTGAAAAGTTTCTAGTATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTATCGCGTTAGCTTCGCTACTCACGGATTAAATCCACAAACAGCTAGTAGACAGCGTTTACGGTGTGGACTACCAGGGTATCTAATCCTGTTCGCTACCCACACTTTCGCACATGAGCGTCAGTTACTGACCAGGGAGTCGCCTTCGCCACTGATGTTCCTCCAGATATCTACGCATTTCACCGCTACACCTGGAATTCCACTCCCCTCTCCAAAACTCTAGCCTGCCAGTTCTAAATGCAATTCTCAGGTTGAGCCCAGGGCTTTCACATCTAGCTTAACAAACCGCCTGCGTGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGGACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTCCTTCTTCTGTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME75A_1_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudoalteromonas arctica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCGTGGGTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACTCTCGCGAGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCGGGGTATCTAATCCCGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACACATGATGGGTATTAACCACNAAGCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME75B_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACTCTCGCGAGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCGGGGTATCTAATCCCGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACACATGATGGGTATTAACTACCACGCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGGCCGTGTCTCAGTCCCAGTGTGGCTGATCATCCTTCTCAAACCAGCTAGGGATCGTCGCCTTGGGTGAGCCATTACCTCACCAACTAGCTAATCCCACTTGGGGCCA</t>
   </si>
   <si>
     <t xml:space="preserve">ME76-Premixed.ab1</t>
@@ -779,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>99.798</v>
+        <v>98.882</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -788,10 +1193,10 @@
         <v>100</v>
       </c>
       <c r="L2" t="n">
-        <v>992</v>
+        <v>1163</v>
       </c>
       <c r="M2" t="n">
-        <v>991</v>
+        <v>1161</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -799,7 +1204,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -814,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
         <v>99.798</v>
@@ -829,21 +1234,21 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="M3" t="n">
         <v>991</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -858,13 +1263,13 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I4" t="n">
         <v>99.798</v>
@@ -882,51 +1287,711 @@
         <v>991</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="n">
+        <v>99.798</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>99</v>
+      </c>
+      <c r="L5" t="n">
+        <v>990</v>
+      </c>
+      <c r="M5" t="n">
+        <v>991</v>
+      </c>
+      <c r="N5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="n">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="n">
+        <v>99.298</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1140</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1140</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="n">
+        <v>99.092</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>99</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1211</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1210</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="n">
+        <v>99.521</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>99</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1253</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1253</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="n">
+        <v>99.521</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>99</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1253</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1253</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="n">
+        <v>98.76</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>100</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1048</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1045</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="n">
+        <v>99.28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1111</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="n">
+        <v>98.802</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1169</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1164</v>
+      </c>
+      <c r="N12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="n">
+        <v>99.333</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>99</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1199</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1199</v>
+      </c>
+      <c r="N13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="n">
+        <v>99.333</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>99</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1199</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1199</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="n">
+        <v>99.915</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1174</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1174</v>
+      </c>
+      <c r="N15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="n">
+        <v>99.913</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1146</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="n">
+        <v>99.268</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1230</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1229</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="n">
         <v>99.245</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>100</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
+      <c r="L18" t="n">
         <v>1060</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M18" t="n">
         <v>1060</v>
       </c>
-      <c r="N5" t="s">
-        <v>32</v>
+      <c r="N18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" t="n">
+        <v>99.754</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1218</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1218</v>
+      </c>
+      <c r="N19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" t="n">
+        <v>99.754</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1218</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1218</v>
+      </c>
+      <c r="N20" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -989,31 +2054,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>99.352</v>
+        <v>99.832</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1022,18 +2087,18 @@
         <v>100</v>
       </c>
       <c r="L2" t="n">
-        <v>1081</v>
+        <v>1187</v>
       </c>
       <c r="M2" t="n">
-        <v>1080</v>
+        <v>1187</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1048,31 +2113,295 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>99.826</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1152</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1151</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>99</v>
       </c>
-      <c r="L3" t="n">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="n">
+        <v>99.828</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>99</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1160</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1162</v>
+      </c>
+      <c r="N4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="n">
+        <v>99.012</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>99</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1113</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1117</v>
+      </c>
+      <c r="N5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" t="n">
+        <v>99.352</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1081</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1080</v>
+      </c>
+      <c r="N6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" t="n">
+        <v>100</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>99</v>
+      </c>
+      <c r="L7" t="n">
         <v>1050</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M7" t="n">
         <v>1052</v>
       </c>
-      <c r="N3" t="s">
-        <v>43</v>
+      <c r="N7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" t="n">
+        <v>99.676</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>99</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1236</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1238</v>
+      </c>
+      <c r="N8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="n">
+        <v>99.581</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>98</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1193</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1213</v>
+      </c>
+      <c r="N9" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1135,28 +2464,28 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="I2" t="n">
         <v>99.9</v>
@@ -1174,12 +2503,12 @@
         <v>999</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1194,13 +2523,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="I3" t="n">
         <v>100</v>
@@ -1218,12 +2547,12 @@
         <v>1026</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1238,13 +2567,13 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="I4" t="n">
         <v>100</v>
@@ -1262,33 +2591,33 @@
         <v>1026</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="I5" t="n">
         <v>99.899</v>
@@ -1306,12 +2635,12 @@
         <v>988</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1326,13 +2655,13 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="I6" t="n">
         <v>99.506</v>
@@ -1350,12 +2679,12 @@
         <v>1013</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1367,254 +2696,958 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>99.19</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L7" t="n">
-        <v>1051</v>
+        <v>1235</v>
       </c>
       <c r="M7" t="n">
-        <v>1051</v>
+        <v>1236</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>99.236</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0000000296</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L8" t="n">
-        <v>32</v>
+        <v>1178</v>
       </c>
       <c r="M8" t="n">
-        <v>1051</v>
+        <v>1181</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>99.236</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0000000296</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L9" t="n">
-        <v>32</v>
+        <v>1178</v>
       </c>
       <c r="M9" t="n">
-        <v>1051</v>
+        <v>1181</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="I10" t="n">
-        <v>99.899</v>
+        <v>99.236</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L10" t="n">
-        <v>987</v>
+        <v>1178</v>
       </c>
       <c r="M10" t="n">
-        <v>987</v>
+        <v>1181</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="I11" t="n">
-        <v>99.907</v>
+        <v>98.792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L11" t="n">
-        <v>1074</v>
+        <v>1242</v>
       </c>
       <c r="M11" t="n">
-        <v>1074</v>
+        <v>1261</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" t="n">
+        <v>98.792</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>98</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1242</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1261</v>
+      </c>
+      <c r="N12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" t="n">
+        <v>99.736</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>99</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1136</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" t="n">
+        <v>99.506</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>100</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1214</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1214</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" t="n">
+        <v>99.506</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1214</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1214</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" t="n">
+        <v>99.506</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1214</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1214</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" t="n">
+        <v>99.506</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1214</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1214</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" t="n">
+        <v>99.506</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1214</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1214</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" t="n">
+        <v>100</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1051</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1051</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" t="n">
+        <v>100</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0000000296</v>
+      </c>
+      <c r="K20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L20" t="n">
+        <v>32</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1051</v>
+      </c>
+      <c r="N20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" t="n">
+        <v>100</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0000000296</v>
+      </c>
+      <c r="K21" t="n">
+        <v>95</v>
+      </c>
+      <c r="L21" t="n">
+        <v>32</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1051</v>
+      </c>
+      <c r="N21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" t="n">
+        <v>98.708</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1161</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1157</v>
+      </c>
+      <c r="N22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="n">
+        <v>99.899</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>100</v>
+      </c>
+      <c r="L23" t="n">
+        <v>987</v>
+      </c>
+      <c r="M23" t="n">
+        <v>987</v>
+      </c>
+      <c r="N23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
         <v>79</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I24" t="n">
+        <v>99.333</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1196</v>
+      </c>
+      <c r="N24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" t="n">
+        <v>99.907</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>100</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1074</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1074</v>
+      </c>
+      <c r="N25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" t="n">
         <v>99.445</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>99</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L26" t="n">
         <v>1082</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M26" t="n">
         <v>1083</v>
       </c>
-      <c r="N12" t="s">
-        <v>80</v>
+      <c r="N26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" t="n">
+        <v>98.73</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>99</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1261</v>
+      </c>
+      <c r="N27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" t="n">
+        <v>99.746</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>99</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1179</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1181</v>
+      </c>
+      <c r="N28" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1677,7 +3710,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1689,16 +3722,16 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="I2" t="n">
         <v>99.712</v>
@@ -1716,36 +3749,36 @@
         <v>1042</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I3" t="n">
-        <v>99.714</v>
+        <v>98.877</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1754,39 +3787,39 @@
         <v>100</v>
       </c>
       <c r="L3" t="n">
-        <v>1048</v>
+        <v>1158</v>
       </c>
       <c r="M3" t="n">
-        <v>1048</v>
+        <v>1156</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="I4" t="n">
         <v>99.714</v>
@@ -1804,80 +3837,80 @@
         <v>1048</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="I5" t="n">
-        <v>99.507</v>
+        <v>99.714</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" t="n">
-        <v>1014</v>
+        <v>1048</v>
       </c>
       <c r="M5" t="n">
-        <v>1033</v>
+        <v>1048</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="I6" t="n">
-        <v>99.898</v>
+        <v>99.132</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1886,42 +3919,42 @@
         <v>100</v>
       </c>
       <c r="L6" t="n">
-        <v>982</v>
+        <v>1152</v>
       </c>
       <c r="M6" t="n">
-        <v>982</v>
+        <v>1152</v>
       </c>
       <c r="N6" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="I7" t="n">
-        <v>99.898</v>
+        <v>99.742</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1930,62 +3963,62 @@
         <v>100</v>
       </c>
       <c r="L7" t="n">
-        <v>982</v>
+        <v>1163</v>
       </c>
       <c r="M7" t="n">
-        <v>982</v>
+        <v>1163</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="I8" t="n">
-        <v>99.49</v>
+        <v>99.742</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L8" t="n">
-        <v>980</v>
+        <v>1163</v>
       </c>
       <c r="M8" t="n">
-        <v>981</v>
+        <v>1163</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1994,66 +4027,66 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>99.507</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L9" t="n">
-        <v>970</v>
+        <v>1014</v>
       </c>
       <c r="M9" t="n">
-        <v>970</v>
+        <v>1033</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>99.092</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -2062,18 +4095,18 @@
         <v>100</v>
       </c>
       <c r="L10" t="n">
-        <v>970</v>
+        <v>1212</v>
       </c>
       <c r="M10" t="n">
-        <v>970</v>
+        <v>1210</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -2085,19 +4118,19 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I11" t="n">
-        <v>99.678</v>
+        <v>99.911</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -2106,18 +4139,18 @@
         <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>933</v>
+        <v>1121</v>
       </c>
       <c r="M11" t="n">
-        <v>933</v>
+        <v>1121</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -2129,39 +4162,39 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="I12" t="n">
-        <v>99.804</v>
+        <v>99.912</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L12" t="n">
-        <v>1021</v>
+        <v>1139</v>
       </c>
       <c r="M12" t="n">
-        <v>1021</v>
+        <v>1143</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -2173,19 +4206,19 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="I13" t="n">
-        <v>99.804</v>
+        <v>99.914</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2194,42 +4227,42 @@
         <v>100</v>
       </c>
       <c r="L13" t="n">
-        <v>1021</v>
+        <v>1157</v>
       </c>
       <c r="M13" t="n">
-        <v>1021</v>
+        <v>1157</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="I14" t="n">
-        <v>99.804</v>
+        <v>98.23</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2238,18 +4271,18 @@
         <v>100</v>
       </c>
       <c r="L14" t="n">
-        <v>1021</v>
+        <v>1130</v>
       </c>
       <c r="M14" t="n">
-        <v>1021</v>
+        <v>1130</v>
       </c>
       <c r="N14" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2261,34 +4294,958 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="n">
+        <v>99.593</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1230</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1229</v>
+      </c>
+      <c r="N15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="n">
+        <v>99.649</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1140</v>
+      </c>
+      <c r="N16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="n">
+        <v>99.828</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1162</v>
+      </c>
+      <c r="N17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" t="n">
+        <v>99.898</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
+      <c r="L18" t="n">
+        <v>982</v>
+      </c>
+      <c r="M18" t="n">
+        <v>982</v>
+      </c>
+      <c r="N18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" t="n">
+        <v>99.898</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
+      <c r="L19" t="n">
+        <v>982</v>
+      </c>
+      <c r="M19" t="n">
+        <v>982</v>
+      </c>
+      <c r="N19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" t="s">
+        <v>226</v>
+      </c>
+      <c r="I20" t="n">
+        <v>98.578</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" t="n">
+        <v>844</v>
+      </c>
+      <c r="M20" t="n">
+        <v>844</v>
+      </c>
+      <c r="N20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" t="n">
+        <v>99.49</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>99</v>
+      </c>
+      <c r="L21" t="n">
+        <v>980</v>
+      </c>
+      <c r="M21" t="n">
+        <v>981</v>
+      </c>
+      <c r="N21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" t="s">
+        <v>175</v>
+      </c>
+      <c r="I22" t="n">
+        <v>99.407</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>99</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1011</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1011</v>
+      </c>
+      <c r="N22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
+        <v>233</v>
+      </c>
+      <c r="I23" t="n">
+        <v>99.764</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>100</v>
+      </c>
+      <c r="L23" t="n">
+        <v>848</v>
+      </c>
+      <c r="M23" t="n">
+        <v>848</v>
+      </c>
+      <c r="N23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" t="n">
+        <v>99.764</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" t="n">
+        <v>848</v>
+      </c>
+      <c r="M24" t="n">
+        <v>848</v>
+      </c>
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>100</v>
+      </c>
+      <c r="L25" t="n">
+        <v>970</v>
+      </c>
+      <c r="M25" t="n">
+        <v>970</v>
+      </c>
+      <c r="N25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" t="n">
+        <v>100</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>100</v>
+      </c>
+      <c r="L26" t="n">
+        <v>970</v>
+      </c>
+      <c r="M26" t="n">
+        <v>970</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F27" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G27" t="s">
         <v>20</v>
       </c>
-      <c r="H15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H27" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" t="n">
+        <v>99.346</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>100</v>
+      </c>
+      <c r="L27" t="n">
+        <v>918</v>
+      </c>
+      <c r="M27" t="n">
+        <v>918</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" t="s">
+        <v>242</v>
+      </c>
+      <c r="I28" t="n">
+        <v>98.35</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>100</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1212</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1209</v>
+      </c>
+      <c r="N28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" t="n">
+        <v>99.678</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>100</v>
+      </c>
+      <c r="L29" t="n">
+        <v>933</v>
+      </c>
+      <c r="M29" t="n">
+        <v>933</v>
+      </c>
+      <c r="N29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I30" t="n">
+        <v>99.109</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>100</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1122</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1122</v>
+      </c>
+      <c r="N30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" t="n">
+        <v>98.873</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>100</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1242</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1240</v>
+      </c>
+      <c r="N31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" t="n">
+        <v>98.873</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>100</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1242</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1240</v>
+      </c>
+      <c r="N32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>252</v>
+      </c>
+      <c r="I33" t="n">
         <v>99.804</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>100</v>
+      </c>
+      <c r="L33" t="n">
         <v>1021</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M33" t="n">
         <v>1021</v>
       </c>
-      <c r="N15" t="s">
-        <v>118</v>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>254</v>
+      </c>
+      <c r="I34" t="n">
+        <v>99.804</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>100</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1021</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1021</v>
+      </c>
+      <c r="N34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>254</v>
+      </c>
+      <c r="I35" t="n">
+        <v>99.804</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>100</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1021</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1021</v>
+      </c>
+      <c r="N35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>255</v>
+      </c>
+      <c r="I36" t="n">
+        <v>99.804</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>100</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1021</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1021</v>
+      </c>
+      <c r="N36" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/Résultats/combined_dataMorlaix.xlsx
+++ b/Résultats/combined_dataMorlaix.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t xml:space="preserve">qseqid</t>
   </si>
@@ -164,6 +164,30 @@
     <t xml:space="preserve">CTACGTGGGTCGCCTGCCTCCCTTGCGGGTTAGCGCAGCGCCTTCGGGTAAAACCAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATGCTGTTACGCGATTACTAGCGATTCCAACTTCATGCTCTCGAGTTGCAGAGAACAATCCGAACTGAGACGGCTTTTAGAGATTAGCTACCCCTCGCGAGGTCGCTGCCCACTGTCACCGCCATTGTAGCACGTGTGTAGCCCAGCCCGTAAGGGCCATGAGGACTTGACGTCATCCCCACCTTCCTCCGGCTTATCACCGGCAGTCCCCCTAGAGTGCCCAACTAAATGCTGGCAACTAAGGGCGAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTCCTGACGTCCCCGAAAGGAACCAACCGTCTCCGGTTGTAGCGTCAAATGTCAAGGGCTGGTAAGGTTCTGCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGAATGCTTAATGCGTTAGCTGCGTCACCAAATAGCAAGCTACCTGACAACTAGCATTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACCTCAGCGTCAGTATCGAGCCAGTGAGCCGCCTTCGCCACTGGTGTTCTTCCGAATATCTACGAATTTCACCTCTACACTCGGAGTTCCACTCACCTCTCTCGATCTCAAGACTGACAGTATCAAAGGCAGTTCCAAGGTTGAGCCTTGGGATTTCACCCCTAACTTATCAGTCCGCCTACGTACTCTTTACGCCCAGTGATTCCGAACAACGCTAGCCCCCTTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGGGCTTCTTCTGCAGTTAATGTCATTATCTTCACTGCTGAAAGTGCTTTACAACCCTAAGGCCGTCATCACACACGCGGCATGGCTGGATCAGGGTTGCCCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGTGTCTCAGTCCCAGTGTGGCTGATCATCCTCTCAGACCAGCTATAGATCGTCGCCTTGGTAAGCCATTACCTTACCAACTAGCTAATCTAACGCGGGCCAATCTCATGGCCAATAAATCTTTCCCCCATAGGGG</t>
   </si>
   <si>
+    <t xml:space="preserve">MG127_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacillota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacilli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacillales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacillaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudalkalibacillus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudalkalibacillus hwajinpoensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTCGGCGGCTGGCTCCATAAAGGTTACCCCACCGACTTCGGGTGTTACAAACTCTCGTGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGGCATGCTGATCCGCGATTACTAGCAATTCCGGCTTCATGCAGGCGAGTTGCAGCCTGCAATCCGAACTGAGAACGGCTTTATGGGATTCGCTTCACCTCGCGGTGTTGCTGCCCTTTGTACCGTCCATTGTAGCACGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCACCTTAGAGTGCCCAACTAAATGCTGGCAACTAAGATCAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACTCTGTCCCCCGAAGGGGAACGTCCTGTCTCCAGGATTGTCAGAGGATGTCAAGACCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACTGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAACCTTGCGGTCGTACTCCCCAGGCGGAGTGCTTAATGTGTTAACTTCAGCACTGAGGGTGGAACCCCCCAACACCTAGCACTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCGCCTCAGCGTCAGTTACAGACCAGAGAGCCGCCTTCGCCACTGGTGTTCCTCCACATATCTACGCATTTCACCGCTACACGTGGAATTCCACTCTCCTCTTCTGCACTCAAGTCCTCCAGTTTCCAATGACCCTCCACGGTTGAGCCGTGGGCTTTCACATCAGACTTAAAAGACCGCCTGCGCGCGCTTTACGCCCAATAATTCCGGACAACGCTTGCCACCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGTGGCTTTCTGGTTAGGTACCGTCAAGGTACCGCCCTATTCGAACGGTACTTGTTCTTCCCTAACAACAGAGCTTTACGACCCGAAGGCCTTCGTCACTCACGCGGCGTTGCTCCGTCAGACTTTCGTCCATTGCGGAAGATTCCCTACTGCTGCCTCCCGTAAGAATTGGGGCCGGGTTCNAGTCCCAGTGTGGCCGA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MG131_3_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -182,6 +206,18 @@
     <t xml:space="preserve">CGTGGGTCNGCTGCCTCCAAAGGTTAGCGCACGGCCGTCGAGGTATAACCAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATGCTGTTACGCGATTACTAGCGATTCCGACTTCATGGGGTCGAGTTGCAGACCCCAATCCGAACTGAGACATCTTTTGGAGATTAACTCACTGTAGATGCCATTGTAGCACGTGTGTAGCCCAACCCGTAAGGGCCATGAGGACTTGACGTCATCCACACCTTCCTCCCGCTTATCACGGGCAGTTTCTCTAGAGTGCCCAGCTTAACCTGCTGGCAACTAAAGATGTGGGTTGCGCTCGTTGCCGGACTTAACCGAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTCACTATGTCCCGTAAAGGAAAACCAGATCTCTCTGGCGGTCATAGGATGTCAAGGGTTGGTAAGGTTCTGCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGAATGCTTAATCCGTTAGGTGTGACACCAAAGGGCAAGCCCCCTGACGTCTGGCATTCATCGTTTACGGTGTGGACTACCAGGGTATCTAATCCTGTTTGCTCGCCACACTTTCGCACCTCAGCGTCAGTATCGAGCCAGTAAGCCGCCTTCGCCACTGGTGTTCCTCCGAATATCTACGAATTTCACCTCTACACTCGGAATTCCACTTACCTCTCTCGAACTCTAGACCAACAGTATTAAAGGCAGTTCCAGGGTTGAGCCCTGGGATTTCACCTCTAACTTATTGATCCGCCTACGTGCGCTTTACGCCCAGTAATTCCGAACAACGCTAACCCCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGGGTTTCTTTACCAGGTACTGTCATTATCATCCCTGGCGAAAGAGCTTTACGATCCTAAGACCTTCGTCACTCACGCGGCATCGCTAAATCAGGCTTGC</t>
   </si>
   <si>
+    <t xml:space="preserve">MG134_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacillus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacillus pumilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTTCGGCGGCTGGGCTCCATAAAGGTTACCTCACCGACTTCGGGTGTTGCAAACTCTCGTGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGGCATGCTGATCCGCGATTACTAGCGATTCCAGCTTCACGCAGTCGAGTTGCAGACTGCGATCCGAACTGAGAACAGATTTATGGGATTGGCTAAACCTTGCGGTCTCGCAGCCCTTTGTTCTGTCCATTGTAGCACGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCACCTTAGAGTGCCCAACTAAATGCTGGCAACTAAGATCAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACTCTGTCCCCGAAGGGAAAGCCCTATCTCTAGGGTTGTCAGAGGATGTCAAGACCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGTCTTGCGACCGTACTCCCCAGGCGGAGTGCTTAATGCGTTAGCTGCAGCACTAAGGGGCGGAAACCCCCTAACACTTAGCACTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGCTCCTCAGCGTCAGTTACAGACCAGAGAGTCGCCTTCGCCACTGGTGTTCCTCCACATCTCTACGCATTTCACCGCTACACGTGGAATTCCACTCTCCTCTTCTGCACTCAAGTTTCCCAGTTTCCAATGACCCTCCCCGGTTGAGCCGGGGGCTTTCACATCAGACTTAAGAAACCGCCTGCGAGCCCTTTACGCCCAATAATTCCGGACAACGCTTGCCACCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGTGGCTTTCTGGTTAGGTACCGTCAAGGTGCGAGCAGTTACTCTCGCACTTGTTCTTCCCTAACAACAAAGCTTTACGATCCGAAAACCTTCAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">MG135_3_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -212,6 +248,30 @@
     <t xml:space="preserve">GGCCGCCTGCCCCCCGAAAGGTTAGCGCAGCGTCGTCGGGTAGAACCAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGGCATGCTGTTCCGCGATTACTAGCGATTCCAACTTCATGCTCTCGAGTTGCAGAGAACAATCCGAACTGAGATGGCTTTTTGGGATTAACCCACTGTCACCACCATTGTAGCACGTGTGTAGCCCAACCCGTAAGGGCCATGAGGACTTGACGTCATCCACACCTTCCTCCGACTTATCATCGGCAGTTTCCATAGAGTGCCCAACTGAATGCTGGCAACTAGGGACGTGGGTTGCGCTCGTTGCCGGACTTAACCGAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTGATATCCAGCCGAACTGAAAGCTCCGTCTCCGGAGCCGCGATATCCATGTCAAGGGTTGGTAAGGTTCTGCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGAATGCTTAATCCGTTAGGTGTGTCACCGAATTGCATGCAACCCGACGACTGGCATTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTCAGCGTCAGTATCGAGCCAGTGAGCCGCCTTCGCCACTGGTGTTCCTCCGAATATCTACGAATTTCACCTCTACACTCGGAATTCCACTCACCTCTCTCGAACTCTAGACTGATAGTTTTGGAGGCAGTTCCGAGGTTGAGCCCCGGGATTTCACCCCCAACTTTCCAATCCGCCTACGTGCGCTTTACGCCCAGTAATTCCGAACAACGCTAGCCCCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGGGCTTCTTCTGCTGGTACCGTCATTATCTTCCCAGCTGAAAGAGCTTTACAACCCTAAGGCCTTCATCACTCACGCGGCATGGCTAGATCAGGGTTGCCCCCATTGTCTAAGATTCCCCACTGCTGCTCCCNGTAGGAGTCTGGGCCGGGTCTCAATCCCAGTGGGGCTGATCATCCTCTCAAACCAGCTATGGATCGTCGGCTTGGTAGGCCATTACCC</t>
   </si>
   <si>
+    <t xml:space="preserve">MG137_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actinomycetota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actinomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micrococcales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanguibacteraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanguibacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanguibacter antarcticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTCGACGGCTCCGTCCCACAAGGGGTTAGGCCACCGGCTTCGGGTGTTACCGACTTTCGTGACTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAGCGTTGCTGATCTGCGATTACTAGCGACTCCGACTTCATGGGGTCGAGTTGCAGACCCCAATCCGAACTGAGACCGGCTTTTTGGGATTCGCTCCACCTCGCGGTATCGCAGCCCTTTGTACCGGCCATTGTAGCATGCGTGAAGCCCAAGACATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGAGTTGACCCCGGCAGTCTCCTATGAGTCCCCACCATAACGTGCTGGCAACATAGGACGAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTACACCAGTCCGAAGACGCGACCATCTCTGGCCGATTCCGGTGTATGTCAAGCCTTGGTAAGGTTCTTCGCGTTGCATCGAATTAATCCGCATGCTCCGCCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAGCCTTGCGGCCGTACTCCCCAGGCGGGGCACTTAATGCGTTTGCTGCGGCACGGAACTCGTGGAATGAGCCCCACACCTAGTGCCCAACGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCATGCTTTCGCTCCTCAGCGTCAGTTGCGGCCCAGTGACCTGCCTTCGCCATCGGTGTTCCTCCTGATATCTGCGCATTCCACCGCTACACCAGGAATTCCAGTCACCCCTACCGCACTCTAGTCTGCCCGTACCCGATGCAAGCTCAAGGTTGAGCCTTGAGTTTTCACACCAGACGCGACAAACCGCCTACGAGCTCTTTACGCCCAATAATTCCGGACAACGCTTGCGCCCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGGCGCTTCTTCTGCAGGTACCGTCACTTTCGCTTCTTCCCTACTGAAAGAGGTTTACAACCCGAAGGCCTTCATCCCTCACGCGGCGTCGCTGCATCAGGCTTTCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCGGGGCCGTGTCCCAGTCCCAGTGGGGCCGGTCGCCTCTCAGGCGGGTAACCGTCGAGCCTTGGGGGGCCGTTACCCGCCAACAGCTGATAGGCCGCGGGTCATCCTTGACGAAAAATTTCAAGCCACCCG</t>
+  </si>
+  <si>
     <t xml:space="preserve">MG138_2_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -221,15 +281,6 @@
     <t xml:space="preserve">MG141_3_1492R-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Actinomycetota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actinomycetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micrococcales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Microbacteriaceae</t>
   </si>
   <si>
@@ -242,6 +293,12 @@
     <t xml:space="preserve">CTCCCTCCTTGCGGTTGGGCCACTGGGCTTCGGGTGTTACCGACTTTCATGACTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAGCGTTGCTGATCTGCGATTACTAGCGACTCCGACTTCATGAGGTCGAGTTGCAGACCTCAATCCGAACTGAGACCGACTTTTTGGGATTCGCTCCACCTCGCGGTATTGCAGCCCTTTGTATCGGCCATTGTAGCATGCGTGAAGCCCAAGACATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGAGTTGACCCCGGCAGTCTCCTTTGAGTTCCCACCATTACGTGCTGGCAACAAAGAACGAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTTTACGAGTGTCCAAAGAGTGAACTATTTCTAGCCCGTTCTCGTATATGTCAAGTCTTGGTAAGGTTCTTCGCGTTGCATCGAATTAATCCGCATGCTCCGCCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAGCCTTGCGGCCGTACTCCCCAGGCGGGGAACTTAATGCGTTAGCTGCGACACAGAAACCGTGGAATGGCCCCTACATCTAGTTCCCAACGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCATGCTTTCGCTCCTCAGCGTCAGTTACGGCCCAGAGATCTGCCTTCGCCATCGGTGTTCCTCCTGATATCTGCGCATTCCACCGCTACACCAGGAATTCCAATCTCCCCTACCGCACTCTAGTCTGCCCGTACCCACTGCAGGCTGGGGGTTGAGCCCCCAGTTTTCACAGCAGACGCGACAAACCGCCTACGAGCTCTTTACGCCCAATAATTCCGGATAACGCTTGCACCCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGGTGCTTTTTCTGCAGGTACCGTCACTTTCGCTTCTTCCCTACTAAAAGAGGTTTACAACCCGAAGGCCGTCGTCCCTCACGCGGCGTTGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGACCGTGTCTCAGTTCCAGTGTGGCCGGTCACCCTCTCAGGCCGGCTACCCGTCGTAGGCTTG</t>
   </si>
   <si>
+    <t xml:space="preserve">MG147_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTCGGCGGCTGGCTCCATAAAGGTTACCCCACCGACTTCGGGTGTTACAAACTCTCGTGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGGCATGCTGATCCGCGATTACTAGCAATTCCGGCTTCATGCAGGCGAGTTGCAGCCTGCAATCCGAACTGAGAACGGCTTTATGGGATTCGCTTCACCTCGCGGTGTCGCTGCCCTTTGTACCGTCCATTGTAGCACGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCACCTTAGAGTGCCCAACTGAATGCTGGCAACTAAGATCAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACTCTGTCCCCCGAAGGGGAACGTCCTGTCTCCAGGATTGTCAGAGGATGTCAAGACCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACTGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAACCTTGCGGTCGTACTCCCCAGGCGGAGTGCTTAATGTGTTAACTTCAGCACTGAGGGTGGAACCCCCCAACACCTAGCACTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCGCCTCAGCGTCAGTTACAGACCAGAGAGCCGCCTTCGCCACTGGTGTTCCTCCACATATCTACGCATTTCACCGCTACACGTGGAATTCCACTCTCCTCTTCTGCACTCAAGTCCTCCAGTTTCCAATGACCCTCCACGGTTGAGCCGTGGGCTTTCACATCAGACTTAAAAGACCGCCTGCGCGCGCTTTACGCCCAATAATTCCGGACAACGCTTGCCACCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGTGGCTTTCTGGTTAAGTACCGTCAAGGTACCGCCCTATTCGAACGGTACTTGTTCTTCCCTAACAACAGAGCTTTACGACCCGAAGGCCTTCGTCACTCACGCGG</t>
+  </si>
+  <si>
     <t xml:space="preserve">MG149b_2_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -320,6 +377,18 @@
     <t xml:space="preserve">GTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATTCTGATATGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACTCTCGCGAGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAGCCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGCTAGCAGGTATTAACTACTAACCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGGCCGTGTCCCAGTCCCAGTGTGGCTGATCA</t>
   </si>
   <si>
+    <t xml:space="preserve">MG167_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niallia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niallia circulans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGCTGGCTCCAAAAGGTTACCCCACCGACTTCGGGTGTTACAAACTCTCGTGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGGCATGCTGATCCGCGATTACTAGCGATTCCAGCTTCATGTAGGCGAGTTGCAGCCTACAATCCGAACTGAGAATGGTTTTATGGGATTTGCTCGACCTCGCGGTTTTGCTGCCCTTTGTACCATCCATTGTAGCACGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCACCTTAGAGTGCCCAACTGAATGCTGGCAACTAAGATCAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACTCTGTCCCCCGAAGGGGAACGTCCTATCTCTAGGAGTGTCAGAGGATGTCAAGACCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGCCTTGCGGCCGTACTCCCCAGGCGGAGTGCTTAATGCGTTTGCTGCAGCACTAAAGGGCGGAAACCCTCTAACACTTAGCACTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCGCCTCAGCGTCAGTTACAGACCAAAGAGTCGCCTTCGCCACTGGTGTTCCTCCACATCTCTACGCATTTCACCGCTACACGTGGAATTCCACTCTTCTCTTCTGCACTCAAGTCCCCCAGTTTCCAATGACCCTCCACGGTTGAGCCGTGGGCTTTCACATCAGACTTAAAGGACCGCCTGCGCGCGCTTTACGCCCAATAATTCCGGACAACGCTTGCCACCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGTGGCTTTCTGGTTAGGTACCGTCAAGGTACAAGCAGTTACTCTTGTACTTGTTCTTCCCTAACAACAGAGTTTTACGATCCGAAAACCTTCATCACTCACGCGGCGTTGCTCCGTCAGACTTTCGTCCATTGCGGAAGATTCCTACTGCTGCTNCCGTAGGAATCTGGGCCGGGTCTCAGTCCCAGT</t>
+  </si>
+  <si>
     <t xml:space="preserve">MG173_2_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -335,18 +404,6 @@
     <t xml:space="preserve">MG174-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacillota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacilli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacillales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacillaceae</t>
-  </si>
-  <si>
     <t xml:space="preserve">Metabacillus</t>
   </si>
   <si>
@@ -356,6 +413,12 @@
     <t xml:space="preserve">CTTAGGCGGCTAGCTCCTTACGGTTACTCCACCGACTTCGGGTGTTACAAACTCTCGTGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATGCTGATCCACGATTACTAGCGATTCCAGCTTCATGCAGGCGAGTTGCAGCCTGCAATCCGAACTGAGAATGGTTTTATGGGATTCGCTTAACTTCGCAGTCTCGCAGCCCTTTGTACCATCCATTGTAGCACGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCACCTTAGAGTGCCCAACTAAATGCTGGCAACTAAGATCAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACCATGTCCCCCGAAGGGGAACGCTCTATCTCTAGAGTTGTCATGGGATGTCAAGACCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGTCTTGCGACCGTACTCCCCAGGCGGAGTGCTTAATGCGTTTGCTGCAGCACTAAAGGGCGGAAACCCTCTAACACTTAGCACTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGCTCCTCAGCGTCAGTTACAGACCAGAGAGTCGCCTTCGCCACTGGTGTTCCTCCACATCTCTACGCATTTCACCGCTACACGTGGAATTCCACTCTCCTCTTCTGTACTCAAGTTCCCCAGTTTCCAATGACCCTCCACGGTTGAGCCGTGGGCTTTCACATCAGACTTAAGGAACCGCCTGCGAGCCCTTTACGCCCAATAATTCCGGACAACGCTTGCCACCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGTGGCTTTCTGGTTAGGTACCGTCATGGTACCGCCCTATTTGAACGGTACTTGTTCTTCCCTAACAACAGAGCTTTACGACCCGAAGGCCTTCATCACTCACGCGGCGTTGC</t>
   </si>
   <si>
+    <t xml:space="preserve">MG174_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTAGGCGGCTAGCTCCTTACGGTTACTCCACCGCACTTCGGGTGTTAAAACTCTCGTGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGGGGCATGCTGATCCACGATTACTACCGATTCCAGCTTCATGCAGGCGAGTTGCAGCCTGCAATCCGAACTGAGAATGGTTTTATGGGATTCGCTTAACTTCGCAGTCTCGCAGCCCTTTGTACCATCCATTGTAGCACGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCACCTTAGAGTGCCCAACTAAATGCTGGCAACTAAGATCAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACCATGTCCCCCGAAGGGGAACGCTCTATCTCTAGAGTTGTCATGGGATGTCAAGACCAGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGTCTTGCGACCGTACTCCCCAGGCGGAGTGCTTAATGCGTTTGCTGCATCACTAAAGGGCGGAAACCCTCTAACACTTAGCACTCATCGTTTACGGCGTGGACTACCACGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGCTCCTCAGCGTCAGTTACAAACCAGAGAGTCGCCTTCGCCACTGGTGTTCCTCCACATCTCTACGCATTTCACCGCTACACGTGGAATTCCACTCTCCTCTTCTGTACTCAAGTTCCCCAGTTTCCAATGACCCTCCACGGTTGAGCCGTGGGCTTTCACATCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MG175-Premixed.ab1</t>
   </si>
   <si>
@@ -392,12 +455,6 @@
     <t xml:space="preserve">MS105-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Pseudalkalibacillus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudalkalibacillus hwajinpoensis</t>
-  </si>
-  <si>
     <t xml:space="preserve">AAGGTTACCCCACCGACTTCGGGTGTTACAAACTCTCGTGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGGCATGCTGATCCGCGATTACTAGCAATTCCGGCTTCATGCAGGCGAGTTGCAGCCTGCAATCCGAACTGAGAACGGCTTTATGGGATTCGCTTCACCTCGCGGTGTTGCTGCCCTTTGTACCGTCCATTGTAGCACGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCACCTTAGAGTGCCCAACTAAATGCTGGCAACTAAGATCAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACTCTGTCCCCCGAAGGGGAACGTCCTGTCTCCAGGATTGTCAGAGGATGTCAAGACCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACTGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAACCTTGCGGTCGTACTCCCCAGGCGGAGTGCTTAATGTGTTAACTTCAGCACTGAGGGTGGAACCCCCCAACACCTAGCACTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCGCCTCAGCGTCAGTTACAGACCAGAGAGCCGCCTTCGCCACTGGTGTTCCTCCACATATCTACGCATTTCACCGCTACACGTGGAATTCCACTCTCCTCTTCTGCACTCAAGTCCTCCAGTTTCCAATGACCCTCCACGGTTGAGCCGTGGGCTTTCACATCAGACTTAAAAGACCGCCTGCGCGCGCTTTACGCCCAATAATTCCGGACAACGCTTGCCACCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGTGGCTTTCTGGTTAGGTACCGTCAAGGTACCGCCCTATTCGAACGGTACTT</t>
   </si>
   <si>
@@ -458,6 +515,12 @@
     <t xml:space="preserve">CTAGGCCGCTCCTTACGGCGACGGACTTCAGGCACTCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATGGCTGATATGCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATAGGGTTTATAGATTCGCTCCTGGTCACCCAGTGGCTGCTCTCTGTCCCTACCATTGTAGCACGTGTGTAGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACAGTTTGCACTGGCAGTCTTGTTAGAGTTCCCGACATGACTCGCTGGCAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAAATTGTCCGAAGAAAAGTCTATTTCTAAACCTGTCAATTTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGTCACTTATCACTTTCGCTTAGCCACTCAAACCTAAGTTCGAACAGCTAGTGACCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATCAGTGTCAGTATATTATTAGTAATCTGCCTTCGCAATTGGTATTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCTAACTACTTCATAATAACTCAAGACAACCAGTATCAAAGGCAATTCTACAGTTGAGCTGCAGGATTTCACCTCTGACTTAATTATCCACCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGGATCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGATCCTTATTCTTACAGTACCGTCAAGCTCTCACACGTGAGAGTGTTTCTTCCTGTATAAAAGCAGTTTACAACCCATAGGGCAGTCTTCCTGCACGCGGCATGGCTGGATCAGAGTTGCCTCCATTGTCCAATATTCCTCACTGCTGCCTCCCGTAGGAATCTGGTCCGTGTCTCAGTACCAGTGNGGGGGATCCCCCTNTCAGGGCCCCTACCTATCGTTGCCATGGTGTGCCGTTACCCACCATCTAGCTAAAAGGACCCTAAGTCATCCCTTACCGTAACCTTTAAGGTTACTTGAGGCCAGTTAA</t>
   </si>
   <si>
+    <t xml:space="preserve">MS112B_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGCTCCTTACGGCGACGGACTTCAGGCACTCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATGGCTGATATGCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATAGGGTTTATAGATTCGCTCCTGGTCACCCAGTGGCTGCTCTCTGTCCCTACCATTGTAGCACGTGTGTAGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACAGTTTGCACTGGCAGTCTTGTTAGAGTTCCCGACATGACTCGCTGGCAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAAATTGTCCGAAGAAAAGTCTATTTCTAAACCTGTCAATTTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGTCACTTATCACTTTCGCTTAGCCACTCAAACCTAAGTTCGAACAGCTAGTGACCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATCAGTGTCAGTATATTATTAGTAATCTGCCTTCGCAATTGGTATTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCTAACTACTTCATAATAACTCAAGACAACCAGTATCAAAGGCAATTCTACAGTTGAGCTGCAGGATTTCACCTCTGACTTAATTATCCACCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGGATCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGATCCTTATTCTTACAGTACCGTCAAGCTCTCACACGTGAGAGTGTTTCTTCCTGTATAAAAGCAGTTTACAACCCATAGGGCAGTCTTCCTGCACGCGGCATGGCTGGATCAGAGTTGCCTCCATTGTCCAATATTCCTCACTGCTGCCTCCCGTAGGAGTCTGGTCCGTGTCTCAGTACCATGTGGGGGATCCCCTCTCAGGGCCCTACCTATCGTTGCCAGGCCGTTACCACCCATCTAGCT</t>
+  </si>
+  <si>
     <t xml:space="preserve">MS115_2_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -470,9 +533,6 @@
     <t xml:space="preserve">MS116_3_1492R-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacillus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bacillus mycoides</t>
   </si>
   <si>
@@ -494,6 +554,36 @@
     <t xml:space="preserve">Thalassomonas haliotis</t>
   </si>
   <si>
+    <t xml:space="preserve">MS119A_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shewanella fidelis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAACGCCCTCCCGAAGGTTAAGCTATCTACTTCTGGTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACCGGCTTTGTGAGATTAGCTCCACCTCGCGGCTTCGCAACCCTCTGTACCGACCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTAAAGTTCCCACCATTACGTGCTGGCAAATAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCTCAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTGAGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTGAGAACCCAGTGTTCAAGACACCAAATTCCGAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCAACAAAACTCTAGTTTGCCATTTCAAAATGCAGTTCCAAGGTTGAGCCCCGGGGTTTCCATCTTNTTAACAAATCGCCTGCGAAAGCTTTCGCCCAGTTATTCGAATTAATGCTTTGAACCCTCGGTATCCCCCGGCTGCTGCCCGGAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS119B_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shewanella piezotolerans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTAACGCCCTCCCGAAGGTTAAGCTATCTACTTCTGGTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACCGGCTTTGTGAGATTAGCTCCACCTCGCGGCTTCGCAACCCTCTGTACCGACCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTAAAGTTCCCACCATTACGTGCTGGCAAATAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCTCAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTGAGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTGAGAACCCAGTGTTCAAGACACCAAATTCCGAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCTACAAGACTCTAGTTTGCCAGTTCAAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTTGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCCTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGTGCTTCTTCTGCGAGTAACGTCACAGTAAGCAGTTATTAACTACCTACCTTTCCTCCTCGCTGAAAGTACTTTACAACCCGAAGGCCTTCTTCATACACGCGGCATGGCTGCATCAGGCTTTCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGACCGTGTCTCAGTTCCAGTGTGGCTGATCATCCTCTCAGACCAGCTAGGGATCGTTGCCTAGGTGAGCCATTACCCCCCTACTAGCTAATCCCACCTAGGTTCNCCAATCNCGAAAGGCCCAAGGTCCCNNCTTTCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS120_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellulophaga omnivescoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTGGGTCGCGTACCTTGACAGGTGACGAACTTCAGGTACCCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGGATCATGGCTGATATCCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATAGGTTTTATAGATTCGCTCCTTATCGCTAAGTGGCTGCTCTCTGTACCTACCATTGTAGCACGTGTGTGGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACGGTTTGCACCGGCAGTCTTGCTAGAGTCCCCACCATAATGTGCTGGTAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAAATTGCCCGAAGGAAAGTCTATCTCTAAACCTGTCAATCTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGATACTTATCACTTTCGCTTGGCCGCGCAGTCCGAAAACCACACAGCTAGTATCCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTACCCACGCTTTCGTCCATCAGCGTCAATGTATTGTTAGTGATCTGCCTTCGCAATCGGTATTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCTAACCACTTCACAATAATTCAAGACCATCAGTATCAAAGGCAATTCTACAGTTGAGCTGCAAACTTTCACCCCTGACTTAATGGCCCGCCTACGGACCCTTTAAACCCAATAATTCCGGATAACGCTCGGACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTCCTTATTCTTACAGTACCGTCACCAGACTACACGTAGTCCTTATTCTTCCTGTATAAAAGCAGTTTACAATCCATAGGACCGTCTTCCTGCACNCGGCATGGCTGGATCAGAATCTCCTCCATTGTCCAATATTCCTCACTGCTGCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellulophaga lytica</t>
+  </si>
+  <si>
     <t xml:space="preserve">MS124_2_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -560,6 +650,12 @@
     <t xml:space="preserve">GCGTCCTCCCCGAAAGGTTAAACTACCCACTTCTTTTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGACATTCTGATTCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTTTGGGATTCGCTCACTATCGCTAGCTTGCTGCCCTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTGGAGTTCCCGACATTACTCGCTGGCAAACAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACACCTGCGTCTCCGCTGGCTTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGTCTACTTAACGCGTTAGCTCCGAAAGCCACGGCTCAAGGCCACAACCTCCAAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCATCTGAGTGTCAGTGTCTGTCCAGGGGGCCGCCTTCGCCACTGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCTACAGCACTCTAGTTCACCAGTTTCAAATGCAGTTCCGAGGTTGAGCCCCGGGCTTTCACATCTGACTTAATGAACCACCTGCATGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTTGCTAACGTCAAGAGATAACGCTATTAACGTTACCCCCTTCCTCACAACTGAAAGTACTTTACAACC</t>
   </si>
   <si>
+    <t xml:space="preserve">ME13_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTCGAAGCTCCCTCCTTGCGGTTGGGCCACTGGGCTTCGGGTGTTACCGACTTTCATGACTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAGCGTTGCTGATCTGCGATTACTAGCGACTCCGACTTCATGAGGTCGAGTTGCAGACCTCAATCCGAACTGAGACCGACTTTTTGGGATTCGCTCCACCTCGCGGTATTGCAGCCCTTTGTATCGGCCATTGTAGCATGCGTGAAGCCCAAGACATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGAGTTGACCCCGGCAGTCTCCTTTGAGTTCCCACCATTACGTGCTGGCAACAAAGAACGAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTTTACGAGTGTCCAAAGAGTGAACTATTTCTAGCCCGTTCTCGTATATGTCAAGTCTTGGTAAGGTTCTTCGCGTTGCATCGAATTAATCCGCATGCTCCGCCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTTAGCCTTGCGGCCGTACTCCCCAGGCGGGGAACTTAATGCGTTAGCTGCGACACAGAAACCGTGGAATGGCCCCTACATCTAGTTCCCAACGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCATGCTTTCGCTCCTCAGCGTCAGTTACGGCCCAGAGATCTGCCTTCGCCATCGGTGTTCCTCCTGATATCTGCGCATTCCACCGCTACACCAGGAATTCCAATCTCCCCTACCGCACTCTAGTCTGCCCGTACCCACTGCAGGCTGGGGGTTGAGCCCCCAGTTTTCACAGCAGACGCGACAAACCGCCTACGAGCTCTTTACGCCCAATAATTCCGGATAACGCTTGCACCCTACGTATTACCGCGGCTGCTGGCACGTAATTAGCCGGTGCTTTTTCTGCAGGTACGTCACTTTCGCTTCTTCCTACAAAAAAGGTTACAACCCGAAGGCCGTCCCCTCAGCGGCGTTGCGCATCAGGCTTGGCCCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME15_3_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -602,6 +698,27 @@
     <t xml:space="preserve">Winogradskyella undariae</t>
   </si>
   <si>
+    <t xml:space="preserve">ME41_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytophagia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytophagales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyclobacteriaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoriphagus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoriphagus winogradskyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTAAACTAGCTCCTTAACGGTTACTGCCTTCAGGTCTACCCGACTTCCATGGCTTGACGGGCGGTGTGTACAAGGTCCGGGAACGTATTCACCGCGCCATGGCTGATGCGCGATTACTAGCGATTCCAGCTTCACGGGGTCGAGTTGCAGACCCCGATCCGAACTGAGACGCACTTTTAAAGGTTGGCATCCTGTTGCCAGGTAGCTACCCGCTGTATGCGCCATTGTAGCACGTGTGTCGCCCTGGGCGTAAGGGCCATGATGACCTGACGTCGTCCCCTCCTTCCTCTCTGCTTGCGCAGGCAGTCTGTCTAGAGTCCCCACCATTATGTGCTGGCAACTAAACATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACACCTCACGGCACGAGCTGACGACGGCCATGCAGCACCTTGTTTCGGGTCATTGCTGACTGATCTGTCTCCAAACCATTCCCTCACATTCTAGCCCAGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGACCCCCGTCAATTCCTTTGAGTTTCACTCTTGCGAGCGTACTCCCCAGGTGGATTACTTAACGCTTTCGCTTGGCCGCTACAACATAAAGCCATAACAGCGAGTAATCATCGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTACCCATGCTTTCGTGCATCAGCGTCAGTTATTGGCCAGTACAATGCCTTCGCTATCGGTGTTCCTGATGGTATCTATGCATTTCACCGCTACACCATCAATTCCATGTACCTCTCCAATACTCAAGCTATCCAGTATCAATGGCACTGCTCCGGTTGAGCCGGAGTCTTTCACCACTGACTTAAATAGCCGCCTACGCACCCTTTAAACCCAATAAATCCGGACAACGCTTGCACACTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTAATCATCTGGTACCGGCAATTTCCCTCGCAAGGGCATTTTCTTCCCAGATAAAAGCAGTTTACAACGCAAAAACGCCGTCTTCCTGCAAGCGGCATGGCTGGGTCAGANTTCGTCCATTGCCAATATTCCTACTGCTGCCCCCGTAGGATCGGCCCGTACTCAATGCCATNGGGGGACCTCTNTCAGAACCCTACGGACGTAGCTTGGTGGTCGGTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME48-Premixed.ab1</t>
   </si>
   <si>
@@ -644,21 +761,6 @@
     <t xml:space="preserve">ME4_3_1492R-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Cytophagia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytophagales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyclobacteriaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algoriphagus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algoriphagus winogradskyi</t>
-  </si>
-  <si>
     <t xml:space="preserve">CTTAACGGTTAACGGGCACTATCAGGTCTACCCGACTTCCATGGCTTGACGGGCGGTGTGTACAAGGTCCGGGAACGTATTCACCGCGCCATGGCTGATGCGCGATTACTAGCGATTCCAGCTTCACGGGGTCGAGTTGCAGACCCCGATCCGAACTGAGACGCACTTTTAGAGGTTGGCATCCTGTTGCCAGGTAGCTACCCGCTGTATGCGCCATTGTAGCACGTGTGTCGCCCTGGGCGTAAGGGCCATGATGACCTGACGTCGTCCCCTCCTTCCTCTCTGCTTGCGCAGGCAGTCTGTCTAGAGTCCCCACCATTACGTGCTGGCAACTAAACATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACACCTCACGGCACGAGCTGACGACGGCCATGCAGCACCTTGTTTCGGGTCATTGCTGACTGATCTGTCTCCAAATCATTCCCTCACATTCTAGCCCAGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGACCCCCGTCAATTCCTTTGAGTTTCACTCTTGCGAGCGTACTCCCCAGGTGGATTACTTAACGCTTTCGCTTGGCCGCTACAACATAAAGCCATAACAGCGAGTAATCATCGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTACCCATGCTTTCGTGCATCAGCGTCAGTTATTGGCCAGTACAATGCCTTCGCTATCGGTGTTCCTGATGGTATCTATGCATTTCACCGCTACACCATCAATTCCATGTACCCCTCCAATACTCAAGCTATCCAGTATCAATGGCACTGCTCCGGTTGAGCCGGAGTCTTTCACCACTGACTTAAATAGCCGCCTACGCACCCTTTAAACCCAATAAATCCGGACAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTATTCATCTGGTACCGGCAATTTCCCTCGCAAGGGCATTTTCTTCCCAGATAAAAGCAGTTTACAACGCAGAACGCCGTCTTCCTGCCCGCGGCATGGCTGGGTCAAACTCNCGTCCATTGCCCAAAATTCCCAACTGCTGCCTCCCGAAGGATTCGGGCCCGTATCCCAATGCCA</t>
   </si>
   <si>
@@ -729,9 +831,6 @@
   </si>
   <si>
     <t xml:space="preserve">ME66_1_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shewanella fidelis</t>
   </si>
   <si>
     <t xml:space="preserve">CCGTGGGTAACGCCCTCCCGAAGGTTAAGCTATCTACTTCTGGTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACCGGCTTTGTGAGATTAGCTCCACCTCGCGGCTTCGCAACCCTCTGTACCGACCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTAAAGTTCCCACCATTACGTGCTGGCAAATAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCTCAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTGAGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTGAGAACCCAGTGTTCAAGACACCAAATTCCGAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCTACAAGACTCTAGTTTGCCAGTTCAAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTTGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGA</t>
@@ -1518,25 +1617,25 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I10" t="n">
-        <v>98.76</v>
+        <v>99.314</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1545,18 +1644,18 @@
         <v>100</v>
       </c>
       <c r="L10" t="n">
-        <v>1048</v>
+        <v>1167</v>
       </c>
       <c r="M10" t="n">
-        <v>1045</v>
+        <v>1166</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1565,22 +1664,22 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I11" t="n">
-        <v>99.28</v>
+        <v>98.76</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1589,62 +1688,62 @@
         <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>1111</v>
+        <v>1048</v>
       </c>
       <c r="M11" t="n">
-        <v>1111</v>
+        <v>1045</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I12" t="n">
-        <v>98.802</v>
+        <v>99.888</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L12" t="n">
-        <v>1169</v>
+        <v>894</v>
       </c>
       <c r="M12" t="n">
-        <v>1164</v>
+        <v>1063</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1653,42 +1752,42 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I13" t="n">
-        <v>99.333</v>
+        <v>99.28</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L13" t="n">
-        <v>1199</v>
+        <v>1111</v>
       </c>
       <c r="M13" t="n">
-        <v>1199</v>
+        <v>1111</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1700,63 +1799,63 @@
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I14" t="n">
-        <v>99.333</v>
+        <v>98.802</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" t="n">
-        <v>1199</v>
+        <v>1169</v>
       </c>
       <c r="M14" t="n">
-        <v>1199</v>
+        <v>1164</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I15" t="n">
-        <v>99.915</v>
+        <v>98.568</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,18 +1864,18 @@
         <v>100</v>
       </c>
       <c r="L15" t="n">
-        <v>1174</v>
+        <v>1257</v>
       </c>
       <c r="M15" t="n">
-        <v>1174</v>
+        <v>1247</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1785,42 +1884,42 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="I16" t="n">
-        <v>99.913</v>
+        <v>99.333</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L16" t="n">
-        <v>1146</v>
+        <v>1199</v>
       </c>
       <c r="M16" t="n">
-        <v>1146</v>
+        <v>1199</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1829,66 +1928,66 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="I17" t="n">
-        <v>99.268</v>
+        <v>99.333</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L17" t="n">
-        <v>1230</v>
+        <v>1199</v>
       </c>
       <c r="M17" t="n">
-        <v>1229</v>
+        <v>1199</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I18" t="n">
-        <v>99.245</v>
+        <v>99.915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1897,42 +1996,42 @@
         <v>100</v>
       </c>
       <c r="L18" t="n">
-        <v>1060</v>
+        <v>1174</v>
       </c>
       <c r="M18" t="n">
-        <v>1060</v>
+        <v>1174</v>
       </c>
       <c r="N18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="I19" t="n">
-        <v>99.754</v>
+        <v>99.814</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1941,18 +2040,18 @@
         <v>100</v>
       </c>
       <c r="L19" t="n">
-        <v>1218</v>
+        <v>1073</v>
       </c>
       <c r="M19" t="n">
-        <v>1218</v>
+        <v>1073</v>
       </c>
       <c r="N19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -1964,34 +2063,210 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" t="n">
+        <v>99.913</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1146</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1146</v>
+      </c>
+      <c r="N20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" t="n">
+        <v>99.268</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1230</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1229</v>
+      </c>
+      <c r="N21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" t="n">
+        <v>99.245</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1060</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1060</v>
+      </c>
+      <c r="N22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F23" t="s">
         <v>24</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G23" t="s">
         <v>25</v>
       </c>
-      <c r="H20" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" t="n">
         <v>99.754</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>100</v>
+      </c>
+      <c r="L23" t="n">
         <v>1218</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M23" t="n">
         <v>1218</v>
       </c>
-      <c r="N20" t="s">
-        <v>89</v>
+      <c r="N23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" t="n">
+        <v>99.754</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1218</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1218</v>
+      </c>
+      <c r="N24" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +2329,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -2075,7 +2350,7 @@
         <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I2" t="n">
         <v>99.832</v>
@@ -2093,12 +2368,12 @@
         <v>1187</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -2113,13 +2388,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="I3" t="n">
         <v>99.826</v>
@@ -2137,12 +2412,12 @@
         <v>1151</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -2163,7 +2438,7 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I4" t="n">
         <v>99.828</v>
@@ -2181,188 +2456,188 @@
         <v>1162</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="I5" t="n">
-        <v>99.012</v>
+        <v>99.566</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="n">
-        <v>1113</v>
+        <v>1151</v>
       </c>
       <c r="M5" t="n">
-        <v>1117</v>
+        <v>1149</v>
       </c>
       <c r="N5" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="I6" t="n">
-        <v>99.352</v>
+        <v>99.012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L6" t="n">
-        <v>1081</v>
+        <v>1113</v>
       </c>
       <c r="M6" t="n">
-        <v>1080</v>
+        <v>1117</v>
       </c>
       <c r="N6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>99.352</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L7" t="n">
-        <v>1050</v>
+        <v>1081</v>
       </c>
       <c r="M7" t="n">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="N7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="I8" t="n">
-        <v>99.676</v>
+        <v>98.286</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L8" t="n">
-        <v>1236</v>
+        <v>875</v>
       </c>
       <c r="M8" t="n">
-        <v>1238</v>
+        <v>873</v>
       </c>
       <c r="N8" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -2374,34 +2649,122 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>99</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1052</v>
+      </c>
+      <c r="N9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" t="n">
+        <v>99.676</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>99</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1236</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1238</v>
+      </c>
+      <c r="N10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" t="n">
         <v>99.581</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>98</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L11" t="n">
         <v>1193</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M11" t="n">
         <v>1213</v>
       </c>
-      <c r="N9" t="s">
-        <v>123</v>
+      <c r="N11" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2464,28 +2827,28 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
         <v>99.9</v>
@@ -2503,12 +2866,12 @@
         <v>999</v>
       </c>
       <c r="N2" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -2529,7 +2892,7 @@
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="I3" t="n">
         <v>100</v>
@@ -2547,12 +2910,12 @@
         <v>1026</v>
       </c>
       <c r="N3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -2573,7 +2936,7 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="I4" t="n">
         <v>100</v>
@@ -2591,12 +2954,12 @@
         <v>1026</v>
       </c>
       <c r="N4" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -2614,10 +2977,10 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="I5" t="n">
         <v>99.899</v>
@@ -2635,12 +2998,12 @@
         <v>988</v>
       </c>
       <c r="N5" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -2655,13 +3018,13 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="I6" t="n">
         <v>99.506</v>
@@ -2679,12 +3042,12 @@
         <v>1013</v>
       </c>
       <c r="N6" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -2696,16 +3059,16 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="I7" t="n">
         <v>99.19</v>
@@ -2723,12 +3086,12 @@
         <v>1236</v>
       </c>
       <c r="N7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -2746,10 +3109,10 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="I8" t="n">
         <v>99.236</v>
@@ -2767,12 +3130,12 @@
         <v>1181</v>
       </c>
       <c r="N8" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -2790,10 +3153,10 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="I9" t="n">
         <v>99.236</v>
@@ -2811,12 +3174,12 @@
         <v>1181</v>
       </c>
       <c r="N9" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2834,10 +3197,10 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="I10" t="n">
         <v>99.236</v>
@@ -2855,12 +3218,12 @@
         <v>1181</v>
       </c>
       <c r="N10" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -2878,10 +3241,10 @@
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H11" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="I11" t="n">
         <v>98.792</v>
@@ -2899,12 +3262,12 @@
         <v>1261</v>
       </c>
       <c r="N11" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -2922,10 +3285,10 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="I12" t="n">
         <v>98.792</v>
@@ -2943,80 +3306,80 @@
         <v>1261</v>
       </c>
       <c r="N12" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="I13" t="n">
-        <v>99.736</v>
+        <v>98.749</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L13" t="n">
-        <v>1135</v>
+        <v>1199</v>
       </c>
       <c r="M13" t="n">
-        <v>1136</v>
+        <v>1190</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I14" t="n">
-        <v>99.506</v>
+        <v>98.749</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -3025,42 +3388,42 @@
         <v>100</v>
       </c>
       <c r="L14" t="n">
-        <v>1214</v>
+        <v>1199</v>
       </c>
       <c r="M14" t="n">
-        <v>1214</v>
+        <v>1190</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I15" t="n">
-        <v>99.506</v>
+        <v>98.749</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -3069,83 +3432,83 @@
         <v>100</v>
       </c>
       <c r="L15" t="n">
-        <v>1214</v>
+        <v>1199</v>
       </c>
       <c r="M15" t="n">
-        <v>1214</v>
+        <v>1190</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="I16" t="n">
-        <v>99.506</v>
+        <v>99.736</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L16" t="n">
-        <v>1214</v>
+        <v>1135</v>
       </c>
       <c r="M16" t="n">
-        <v>1214</v>
+        <v>1136</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I17" t="n">
         <v>99.506</v>
@@ -3163,33 +3526,33 @@
         <v>1214</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I18" t="n">
         <v>99.506</v>
@@ -3207,36 +3570,36 @@
         <v>1214</v>
       </c>
       <c r="N18" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="I19" t="n">
-        <v>100</v>
+        <v>99.506</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -3245,106 +3608,106 @@
         <v>100</v>
       </c>
       <c r="L19" t="n">
-        <v>1051</v>
+        <v>1214</v>
       </c>
       <c r="M19" t="n">
-        <v>1051</v>
+        <v>1214</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="I20" t="n">
-        <v>100</v>
+        <v>99.506</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0000000296</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L20" t="n">
-        <v>32</v>
+        <v>1214</v>
       </c>
       <c r="M20" t="n">
-        <v>1051</v>
+        <v>1214</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="I21" t="n">
-        <v>100</v>
+        <v>99.506</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0000000296</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>32</v>
+        <v>1214</v>
       </c>
       <c r="M21" t="n">
-        <v>1051</v>
+        <v>1214</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -3356,19 +3719,19 @@
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="I22" t="n">
-        <v>98.708</v>
+        <v>100</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -3377,18 +3740,18 @@
         <v>100</v>
       </c>
       <c r="L22" t="n">
-        <v>1161</v>
+        <v>1051</v>
       </c>
       <c r="M22" t="n">
-        <v>1157</v>
+        <v>1051</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -3403,36 +3766,36 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="I23" t="n">
-        <v>99.899</v>
+        <v>100</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.0000000296</v>
       </c>
       <c r="K23" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L23" t="n">
-        <v>987</v>
+        <v>32</v>
       </c>
       <c r="M23" t="n">
-        <v>987</v>
+        <v>1051</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -3444,83 +3807,83 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="I24" t="n">
-        <v>99.333</v>
+        <v>100</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.0000000296</v>
       </c>
       <c r="K24" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L24" t="n">
-        <v>1200</v>
+        <v>32</v>
       </c>
       <c r="M24" t="n">
-        <v>1196</v>
+        <v>1051</v>
       </c>
       <c r="N24" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="I25" t="n">
-        <v>99.907</v>
+        <v>97.043</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L25" t="n">
-        <v>1074</v>
+        <v>947</v>
       </c>
       <c r="M25" t="n">
-        <v>1074</v>
+        <v>951</v>
       </c>
       <c r="N25" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -3535,16 +3898,16 @@
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="I26" t="n">
-        <v>99.445</v>
+        <v>97.958</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -3553,18 +3916,18 @@
         <v>99</v>
       </c>
       <c r="L26" t="n">
-        <v>1082</v>
+        <v>1273</v>
       </c>
       <c r="M26" t="n">
-        <v>1083</v>
+        <v>1271</v>
       </c>
       <c r="N26" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -3582,72 +3945,380 @@
         <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="I27" t="n">
-        <v>98.73</v>
+        <v>98.553</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
-        <v>1260</v>
+        <v>1106</v>
       </c>
       <c r="M27" t="n">
-        <v>1261</v>
+        <v>1106</v>
       </c>
       <c r="N27" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" t="n">
+        <v>98.553</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>100</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1106</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1106</v>
+      </c>
+      <c r="N28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>17</v>
       </c>
-      <c r="E28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" t="s">
-        <v>138</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" t="s">
+        <v>191</v>
+      </c>
+      <c r="H29" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" t="n">
+        <v>98.708</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>100</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1161</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1157</v>
+      </c>
+      <c r="N29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="n">
+        <v>99.899</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>100</v>
+      </c>
+      <c r="L30" t="n">
+        <v>987</v>
+      </c>
+      <c r="M30" t="n">
+        <v>987</v>
+      </c>
+      <c r="N30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" t="n">
+        <v>99.333</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>100</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1196</v>
+      </c>
+      <c r="N31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" t="n">
+        <v>99.907</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>100</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1074</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1074</v>
+      </c>
+      <c r="N32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>201</v>
+      </c>
+      <c r="I33" t="n">
+        <v>99.445</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>99</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1082</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1083</v>
+      </c>
+      <c r="N33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" t="n">
+        <v>98.73</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>99</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1260</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1261</v>
+      </c>
+      <c r="N34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" t="n">
         <v>99.746</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>99</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L35" t="n">
         <v>1179</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M35" t="n">
         <v>1181</v>
       </c>
-      <c r="N28" t="s">
-        <v>178</v>
+      <c r="N35" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3710,7 +4381,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -3722,16 +4393,16 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="I2" t="n">
         <v>99.712</v>
@@ -3749,36 +4420,36 @@
         <v>1042</v>
       </c>
       <c r="N2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I3" t="n">
-        <v>98.877</v>
+        <v>98.796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3787,42 +4458,42 @@
         <v>100</v>
       </c>
       <c r="L3" t="n">
-        <v>1158</v>
+        <v>1080</v>
       </c>
       <c r="M3" t="n">
-        <v>1156</v>
+        <v>1070</v>
       </c>
       <c r="N3" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="I4" t="n">
-        <v>99.714</v>
+        <v>98.877</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -3831,39 +4502,39 @@
         <v>100</v>
       </c>
       <c r="L4" t="n">
-        <v>1048</v>
+        <v>1158</v>
       </c>
       <c r="M4" t="n">
-        <v>1048</v>
+        <v>1156</v>
       </c>
       <c r="N4" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="I5" t="n">
         <v>99.714</v>
@@ -3881,36 +4552,36 @@
         <v>1048</v>
       </c>
       <c r="N5" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="I6" t="n">
-        <v>99.132</v>
+        <v>99.714</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -3919,42 +4590,42 @@
         <v>100</v>
       </c>
       <c r="L6" t="n">
-        <v>1152</v>
+        <v>1048</v>
       </c>
       <c r="M6" t="n">
-        <v>1152</v>
+        <v>1048</v>
       </c>
       <c r="N6" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="I7" t="n">
-        <v>99.742</v>
+        <v>99.132</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -3963,18 +4634,18 @@
         <v>100</v>
       </c>
       <c r="L7" t="n">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="M7" t="n">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="N7" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -3992,10 +4663,10 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="I8" t="n">
         <v>99.742</v>
@@ -4013,56 +4684,56 @@
         <v>1163</v>
       </c>
       <c r="N8" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="I9" t="n">
-        <v>99.507</v>
+        <v>99.742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L9" t="n">
-        <v>1014</v>
+        <v>1163</v>
       </c>
       <c r="M9" t="n">
-        <v>1033</v>
+        <v>1163</v>
       </c>
       <c r="N9" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -4071,42 +4742,42 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="H10" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="I10" t="n">
-        <v>99.092</v>
+        <v>97.069</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L10" t="n">
-        <v>1212</v>
+        <v>1194</v>
       </c>
       <c r="M10" t="n">
-        <v>1210</v>
+        <v>1181</v>
       </c>
       <c r="N10" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -4115,86 +4786,86 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="I11" t="n">
-        <v>99.911</v>
+        <v>99.507</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L11" t="n">
-        <v>1121</v>
+        <v>1014</v>
       </c>
       <c r="M11" t="n">
-        <v>1121</v>
+        <v>1033</v>
       </c>
       <c r="N11" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="I12" t="n">
-        <v>99.912</v>
+        <v>99.092</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L12" t="n">
-        <v>1139</v>
+        <v>1212</v>
       </c>
       <c r="M12" t="n">
-        <v>1143</v>
+        <v>1210</v>
       </c>
       <c r="N12" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -4206,19 +4877,19 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I13" t="n">
-        <v>99.914</v>
+        <v>99.911</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -4227,62 +4898,62 @@
         <v>100</v>
       </c>
       <c r="L13" t="n">
-        <v>1157</v>
+        <v>1121</v>
       </c>
       <c r="M13" t="n">
-        <v>1157</v>
+        <v>1121</v>
       </c>
       <c r="N13" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="I14" t="n">
-        <v>98.23</v>
+        <v>99.912</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L14" t="n">
-        <v>1130</v>
+        <v>1139</v>
       </c>
       <c r="M14" t="n">
-        <v>1130</v>
+        <v>1143</v>
       </c>
       <c r="N14" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -4294,19 +4965,19 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I15" t="n">
-        <v>99.593</v>
+        <v>99.914</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -4315,42 +4986,42 @@
         <v>100</v>
       </c>
       <c r="L15" t="n">
-        <v>1230</v>
+        <v>1157</v>
       </c>
       <c r="M15" t="n">
-        <v>1229</v>
+        <v>1157</v>
       </c>
       <c r="N15" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="I16" t="n">
-        <v>99.649</v>
+        <v>98.23</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -4359,18 +5030,18 @@
         <v>100</v>
       </c>
       <c r="L16" t="n">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="M16" t="n">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="N16" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -4382,19 +5053,19 @@
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I17" t="n">
-        <v>99.828</v>
+        <v>99.593</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -4403,42 +5074,42 @@
         <v>100</v>
       </c>
       <c r="L17" t="n">
-        <v>1162</v>
+        <v>1230</v>
       </c>
       <c r="M17" t="n">
-        <v>1162</v>
+        <v>1229</v>
       </c>
       <c r="N17" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="I18" t="n">
-        <v>99.898</v>
+        <v>99.649</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -4447,42 +5118,42 @@
         <v>100</v>
       </c>
       <c r="L18" t="n">
-        <v>982</v>
+        <v>1141</v>
       </c>
       <c r="M18" t="n">
-        <v>982</v>
+        <v>1140</v>
       </c>
       <c r="N18" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="I19" t="n">
-        <v>99.898</v>
+        <v>99.828</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -4491,42 +5162,42 @@
         <v>100</v>
       </c>
       <c r="L19" t="n">
-        <v>982</v>
+        <v>1162</v>
       </c>
       <c r="M19" t="n">
-        <v>982</v>
+        <v>1162</v>
       </c>
       <c r="N19" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
         <v>223</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>224</v>
       </c>
-      <c r="G20" t="s">
-        <v>225</v>
-      </c>
-      <c r="H20" t="s">
-        <v>226</v>
-      </c>
       <c r="I20" t="n">
-        <v>98.578</v>
+        <v>99.898</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -4535,18 +5206,18 @@
         <v>100</v>
       </c>
       <c r="L20" t="n">
-        <v>844</v>
+        <v>982</v>
       </c>
       <c r="M20" t="n">
-        <v>844</v>
+        <v>982</v>
       </c>
       <c r="N20" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -4555,174 +5226,174 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="H21" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="I21" t="n">
-        <v>99.49</v>
+        <v>99.898</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="M21" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N21" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="H22" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="I22" t="n">
-        <v>99.407</v>
+        <v>98.578</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L22" t="n">
-        <v>1011</v>
+        <v>844</v>
       </c>
       <c r="M22" t="n">
-        <v>1011</v>
+        <v>844</v>
       </c>
       <c r="N22" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" t="s">
         <v>232</v>
       </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" t="s">
-        <v>233</v>
-      </c>
       <c r="I23" t="n">
-        <v>99.764</v>
+        <v>99.49</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L23" t="n">
-        <v>848</v>
+        <v>980</v>
       </c>
       <c r="M23" t="n">
-        <v>848</v>
+        <v>981</v>
       </c>
       <c r="N23" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="I24" t="n">
-        <v>99.764</v>
+        <v>99.407</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L24" t="n">
-        <v>848</v>
+        <v>1011</v>
       </c>
       <c r="M24" t="n">
-        <v>848</v>
+        <v>1011</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -4734,19 +5405,19 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="I25" t="n">
-        <v>100</v>
+        <v>99.764</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -4755,18 +5426,18 @@
         <v>100</v>
       </c>
       <c r="L25" t="n">
-        <v>970</v>
+        <v>848</v>
       </c>
       <c r="M25" t="n">
-        <v>970</v>
+        <v>848</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -4778,19 +5449,19 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I26" t="n">
-        <v>100</v>
+        <v>99.764</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -4799,18 +5470,18 @@
         <v>100</v>
       </c>
       <c r="L26" t="n">
-        <v>970</v>
+        <v>848</v>
       </c>
       <c r="M26" t="n">
-        <v>970</v>
+        <v>848</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -4822,19 +5493,19 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="I27" t="n">
-        <v>99.346</v>
+        <v>100</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -4843,18 +5514,18 @@
         <v>100</v>
       </c>
       <c r="L27" t="n">
-        <v>918</v>
+        <v>970</v>
       </c>
       <c r="M27" t="n">
-        <v>918</v>
+        <v>970</v>
       </c>
       <c r="N27" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -4866,19 +5537,19 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c r="I28" t="n">
-        <v>98.35</v>
+        <v>100</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -4887,18 +5558,18 @@
         <v>100</v>
       </c>
       <c r="L28" t="n">
-        <v>1212</v>
+        <v>970</v>
       </c>
       <c r="M28" t="n">
-        <v>1209</v>
+        <v>970</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -4913,16 +5584,16 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="I29" t="n">
-        <v>99.678</v>
+        <v>99.346</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -4931,18 +5602,18 @@
         <v>100</v>
       </c>
       <c r="L29" t="n">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="M29" t="n">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="N29" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -4957,16 +5628,16 @@
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c r="H30" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="I30" t="n">
-        <v>99.109</v>
+        <v>98.35</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -4975,18 +5646,18 @@
         <v>100</v>
       </c>
       <c r="L30" t="n">
-        <v>1122</v>
+        <v>1212</v>
       </c>
       <c r="M30" t="n">
-        <v>1122</v>
+        <v>1209</v>
       </c>
       <c r="N30" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -5001,16 +5672,16 @@
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="I31" t="n">
-        <v>98.873</v>
+        <v>99.678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -5019,18 +5690,18 @@
         <v>100</v>
       </c>
       <c r="L31" t="n">
-        <v>1242</v>
+        <v>933</v>
       </c>
       <c r="M31" t="n">
-        <v>1240</v>
+        <v>933</v>
       </c>
       <c r="N31" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -5051,10 +5722,10 @@
         <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="I32" t="n">
-        <v>98.873</v>
+        <v>99.109</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -5063,18 +5734,18 @@
         <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>1242</v>
+        <v>1122</v>
       </c>
       <c r="M32" t="n">
-        <v>1240</v>
+        <v>1122</v>
       </c>
       <c r="N32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -5095,10 +5766,10 @@
         <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="I33" t="n">
-        <v>99.804</v>
+        <v>98.873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -5107,18 +5778,18 @@
         <v>100</v>
       </c>
       <c r="L33" t="n">
-        <v>1021</v>
+        <v>1242</v>
       </c>
       <c r="M33" t="n">
-        <v>1021</v>
+        <v>1240</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -5139,10 +5810,10 @@
         <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="I34" t="n">
-        <v>99.804</v>
+        <v>98.873</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -5151,18 +5822,18 @@
         <v>100</v>
       </c>
       <c r="L34" t="n">
-        <v>1021</v>
+        <v>1242</v>
       </c>
       <c r="M34" t="n">
-        <v>1021</v>
+        <v>1240</v>
       </c>
       <c r="N34" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -5183,7 +5854,7 @@
         <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="I35" t="n">
         <v>99.804</v>
@@ -5201,12 +5872,12 @@
         <v>1021</v>
       </c>
       <c r="N35" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -5227,7 +5898,7 @@
         <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="I36" t="n">
         <v>99.804</v>
@@ -5245,7 +5916,95 @@
         <v>1021</v>
       </c>
       <c r="N36" t="s">
-        <v>253</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>284</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>287</v>
+      </c>
+      <c r="I37" t="n">
+        <v>99.804</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>100</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1021</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1021</v>
+      </c>
+      <c r="N37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>284</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>288</v>
+      </c>
+      <c r="I38" t="n">
+        <v>99.804</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>100</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1021</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1021</v>
+      </c>
+      <c r="N38" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Résultats/combined_dataMorlaix.xlsx
+++ b/Résultats/combined_dataMorlaix.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t xml:space="preserve">qseqid</t>
   </si>
@@ -413,12 +413,6 @@
     <t xml:space="preserve">CTTAGGCGGCTAGCTCCTTACGGTTACTCCACCGACTTCGGGTGTTACAAACTCTCGTGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATGCTGATCCACGATTACTAGCGATTCCAGCTTCATGCAGGCGAGTTGCAGCCTGCAATCCGAACTGAGAATGGTTTTATGGGATTCGCTTAACTTCGCAGTCTCGCAGCCCTTTGTACCATCCATTGTAGCACGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCACCTTAGAGTGCCCAACTAAATGCTGGCAACTAAGATCAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACCATGTCCCCCGAAGGGGAACGCTCTATCTCTAGAGTTGTCATGGGATGTCAAGACCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGTCTTGCGACCGTACTCCCCAGGCGGAGTGCTTAATGCGTTTGCTGCAGCACTAAAGGGCGGAAACCCTCTAACACTTAGCACTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGCTCCTCAGCGTCAGTTACAGACCAGAGAGTCGCCTTCGCCACTGGTGTTCCTCCACATCTCTACGCATTTCACCGCTACACGTGGAATTCCACTCTCCTCTTCTGTACTCAAGTTCCCCAGTTTCCAATGACCCTCCACGGTTGAGCCGTGGGCTTTCACATCAGACTTAAGGAACCGCCTGCGAGCCCTTTACGCCCAATAATTCCGGACAACGCTTGCCACCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGTGGCTTTCTGGTTAGGTACCGTCATGGTACCGCCCTATTTGAACGGTACTTGTTCTTCCCTAACAACAGAGCTTTACGACCCGAAGGCCTTCATCACTCACGCGGCGTTGC</t>
   </si>
   <si>
-    <t xml:space="preserve">MG174_4_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTAGGCGGCTAGCTCCTTACGGTTACTCCACCGCACTTCGGGTGTTAAAACTCTCGTGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGGGGCATGCTGATCCACGATTACTACCGATTCCAGCTTCATGCAGGCGAGTTGCAGCCTGCAATCCGAACTGAGAATGGTTTTATGGGATTCGCTTAACTTCGCAGTCTCGCAGCCCTTTGTACCATCCATTGTAGCACGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCACCTTAGAGTGCCCAACTAAATGCTGGCAACTAAGATCAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACCATGTCCCCCGAAGGGGAACGCTCTATCTCTAGAGTTGTCATGGGATGTCAAGACCAGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGTCTTGCGACCGTACTCCCCAGGCGGAGTGCTTAATGCGTTTGCTGCATCACTAAAGGGCGGAAACCCTCTAACACTTAGCACTCATCGTTTACGGCGTGGACTACCACGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGCTCCTCAGCGTCAGTTACAAACCAGAGAGTCGCCTTCGCCACTGGTGTTCCTCCACATCTCTACGCATTTCACCGCTACACGTGGAATTCCACTCTCCTCTTCTGTACTCAAGTTCCCCAGTTTCCAATGACCCTCCACGGTTGAGCCGTGGGCTTTCACATCA</t>
-  </si>
-  <si>
     <t xml:space="preserve">MG175-Premixed.ab1</t>
   </si>
   <si>
@@ -428,12 +422,6 @@
     <t xml:space="preserve">GTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACCTTCGCAGGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGTTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGCTAGCAGGTATTAACTACTAACCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTT</t>
   </si>
   <si>
-    <t xml:space="preserve">MG175_2_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACCTTCGCAGGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGTTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGCTAGCAGGTATTAACTACTAACCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGGCCGTGTCTCAGTCCCAGTNTGGCTGATCATCCTCTCAAACCAGCTAGGGATCGTCCCCTTGGTGAGCCATTACCTCACCAACTAGCTAATCCCCCTTGGGCCAAT</t>
-  </si>
-  <si>
     <t xml:space="preserve">MG176_2_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -509,18 +497,6 @@
     <t xml:space="preserve">Olleya marilimosa</t>
   </si>
   <si>
-    <t xml:space="preserve">MS112B_2_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTAGGCCGCTCCTTACGGCGACGGACTTCAGGCACTCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATGGCTGATATGCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATAGGGTTTATAGATTCGCTCCTGGTCACCCAGTGGCTGCTCTCTGTCCCTACCATTGTAGCACGTGTGTAGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACAGTTTGCACTGGCAGTCTTGTTAGAGTTCCCGACATGACTCGCTGGCAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAAATTGTCCGAAGAAAAGTCTATTTCTAAACCTGTCAATTTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGTCACTTATCACTTTCGCTTAGCCACTCAAACCTAAGTTCGAACAGCTAGTGACCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATCAGTGTCAGTATATTATTAGTAATCTGCCTTCGCAATTGGTATTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCTAACTACTTCATAATAACTCAAGACAACCAGTATCAAAGGCAATTCTACAGTTGAGCTGCAGGATTTCACCTCTGACTTAATTATCCACCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGGATCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGATCCTTATTCTTACAGTACCGTCAAGCTCTCACACGTGAGAGTGTTTCTTCCTGTATAAAAGCAGTTTACAACCCATAGGGCAGTCTTCCTGCACGCGGCATGGCTGGATCAGAGTTGCCTCCATTGTCCAATATTCCTCACTGCTGCCTCCCGTAGGAATCTGGTCCGTGTCTCAGTACCAGTGNGGGGGATCCCCCTNTCAGGGCCCCTACCTATCGTTGCCATGGTGTGCCGTTACCCACCATCTAGCTAAAAGGACCCTAAGTCATCCCTTACCGTAACCTTTAAGGTTACTTGAGGCCAGTTAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS112B_4_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGCTCCTTACGGCGACGGACTTCAGGCACTCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATGGCTGATATGCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATAGGGTTTATAGATTCGCTCCTGGTCACCCAGTGGCTGCTCTCTGTCCCTACCATTGTAGCACGTGTGTAGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACAGTTTGCACTGGCAGTCTTGTTAGAGTTCCCGACATGACTCGCTGGCAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAAATTGTCCGAAGAAAAGTCTATTTCTAAACCTGTCAATTTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGTCACTTATCACTTTCGCTTAGCCACTCAAACCTAAGTTCGAACAGCTAGTGACCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATCAGTGTCAGTATATTATTAGTAATCTGCCTTCGCAATTGGTATTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCTAACTACTTCATAATAACTCAAGACAACCAGTATCAAAGGCAATTCTACAGTTGAGCTGCAGGATTTCACCTCTGACTTAATTATCCACCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGGATCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGATCCTTATTCTTACAGTACCGTCAAGCTCTCACACGTGAGAGTGTTTCTTCCTGTATAAAAGCAGTTTACAACCCATAGGGCAGTCTTCCTGCACGCGGCATGGCTGGATCAGAGTTGCCTCCATTGTCCAATATTCCTCACTGCTGCCTCCCGTAGGAGTCTGGTCCGTGTCTCAGTACCATGTGGGGGATCCCCTCTCAGGGCCCTACCTATCGTTGCCAGGCCGTTACCACCCATCTAGCT</t>
-  </si>
-  <si>
     <t xml:space="preserve">MS115_2_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -563,15 +539,6 @@
     <t xml:space="preserve">TAACGCCCTCCCGAAGGTTAAGCTATCTACTTCTGGTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACCGGCTTTGTGAGATTAGCTCCACCTCGCGGCTTCGCAACCCTCTGTACCGACCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTAAAGTTCCCACCATTACGTGCTGGCAAATAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCTCAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTGAGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTGAGAACCCAGTGTTCAAGACACCAAATTCCGAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCAACAAAACTCTAGTTTGCCATTTCAAAATGCAGTTCCAAGGTTGAGCCCCGGGGTTTCCATCTTNTTAACAAATCGCCTGCGAAAGCTTTCGCCCAGTTATTCGAATTAATGCTTTGAACCCTCGGTATCCCCCGGCTGCTGCCCGGAG</t>
   </si>
   <si>
-    <t xml:space="preserve">MS119B_4_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shewanella piezotolerans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTAACGCCCTCCCGAAGGTTAAGCTATCTACTTCTGGTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACCGGCTTTGTGAGATTAGCTCCACCTCGCGGCTTCGCAACCCTCTGTACCGACCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTAAAGTTCCCACCATTACGTGCTGGCAAATAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCTCAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTGAGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTGAGAACCCAGTGTTCAAGACACCAAATTCCGAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTACCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCTACAAGACTCTAGTTTGCCAGTTCAAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTTGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCCTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGTGCTTCTTCTGCGAGTAACGTCACAGTAAGCAGTTATTAACTACCTACCTTTCCTCCTCGCTGAAAGTACTTTACAACCCGAAGGCCTTCTTCATACACGCGGCATGGCTGCATCAGGCTTTCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGACCGTGTCTCAGTTCCAGTGTGGCTGATCATCCTCTCAGACCAGCTAGGGATCGTTGCCTAGGTGAGCCATTACCCCCCTACTAGCTAATCCCACCTAGGTTCNCCAATCNCGAAAGGCCCAAGGTCCCNNCTTTCCC</t>
-  </si>
-  <si>
     <t xml:space="preserve">MS120_4_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -740,42 +707,18 @@
     <t xml:space="preserve">TTACCTAGGCCGCTCCTTACGGTGACGGACTTCAGGCACTCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCATCATGGCTGATATGCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGATAGGGTTTATAGATTCGCTCCTTCTCGCGAAGTGGCTGCTCTCTGTCCCTACCATTGTAGCACGTGTGTAGCCCAGGACGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACAGTTTGCACTGGCAGTCTTGTTAGAGTTCCCATCTTTACATGCTGGCAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAGATAGTCCGAAGAAATAAGTGTCTCCACCTAATGCAATCTACATTTAAGCCCTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCATTCTTGCGAACGTACTCCCCAGGTGGGATACTTATCACTTTCGCTTAGCCACTCAGTCCGAAAACCGAACAGCTAGTATCCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTCCCCACGCTTTCGTCCATCAGTGTCAATATATTGTTAGTGATCTGCCTTCGCAATTGGTATTCTATGTAATATCTATGCATTTCACCGCTACACTACATATTCTAACCACTTCACAATAATTCAAGATAACCAGTATCAAAGGCAATTTTACAGTTGAGCTGCAAACTTTCACCCCTGACTTAATTATCCACCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGGATCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGATCCTTATTCTTACAGTACCGTCAGCTTTTCACACGTGAAAAGGTTTCTTCCTGTATAAAAGCAGTTTACAACCCATAGGGCAGTCTTCCTGCACGCGGCATGGCTGGATCAGGCTCGCGCCCATTGTCCAATATTCCTCACTGCTGCCTCCCGTAGGAATCTGGTCCGTGTCTCAGTACCAGTGTGGGGGATCCCCCTCTCAGGGCCCTATCTATCCGGGTCTTGGTAAGCCGTTACCTTACCAACTAACTAA</t>
   </si>
   <si>
-    <t xml:space="preserve">ME49B1_1_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGATCGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAAAATTCCCCACTGCTGCCTCCC</t>
-  </si>
-  <si>
     <t xml:space="preserve">ME49B_2_1492R-Premixed.ab1</t>
   </si>
   <si>
     <t xml:space="preserve">CGTTGGGTGATCGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCCACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCG</t>
   </si>
   <si>
-    <t xml:space="preserve">ME49B_3_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGTGTNTCAGTCCCAGTGTGGCTGAT</t>
-  </si>
-  <si>
     <t xml:space="preserve">ME4_3_1492R-Premixed.ab1</t>
   </si>
   <si>
     <t xml:space="preserve">CTTAACGGTTAACGGGCACTATCAGGTCTACCCGACTTCCATGGCTTGACGGGCGGTGTGTACAAGGTCCGGGAACGTATTCACCGCGCCATGGCTGATGCGCGATTACTAGCGATTCCAGCTTCACGGGGTCGAGTTGCAGACCCCGATCCGAACTGAGACGCACTTTTAGAGGTTGGCATCCTGTTGCCAGGTAGCTACCCGCTGTATGCGCCATTGTAGCACGTGTGTCGCCCTGGGCGTAAGGGCCATGATGACCTGACGTCGTCCCCTCCTTCCTCTCTGCTTGCGCAGGCAGTCTGTCTAGAGTCCCCACCATTACGTGCTGGCAACTAAACATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACACCTCACGGCACGAGCTGACGACGGCCATGCAGCACCTTGTTTCGGGTCATTGCTGACTGATCTGTCTCCAAATCATTCCCTCACATTCTAGCCCAGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGACCCCCGTCAATTCCTTTGAGTTTCACTCTTGCGAGCGTACTCCCCAGGTGGATTACTTAACGCTTTCGCTTGGCCGCTACAACATAAAGCCATAACAGCGAGTAATCATCGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTACCCATGCTTTCGTGCATCAGCGTCAGTTATTGGCCAGTACAATGCCTTCGCTATCGGTGTTCCTGATGGTATCTATGCATTTCACCGCTACACCATCAATTCCATGTACCCCTCCAATACTCAAGCTATCCAGTATCAATGGCACTGCTCCGGTTGAGCCGGAGTCTTTCACCACTGACTTAAATAGCCGCCTACGCACCCTTTAAACCCAATAAATCCGGACAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTATTCATCTGGTACCGGCAATTTCCCTCGCAAGGGCATTTTCTTCCCAGATAAAAGCAGTTTACAACGCAGAACGCCGTCTTCCTGCCCGCGGCATGGCTGGGTCAAACTCNCGTCCATTGCCCAAAATTCCCAACTGCTGCCTCCCGAAGGATTCGGGCCCGTATCCCAATGCCA</t>
   </si>
   <si>
-    <t xml:space="preserve">ME53A_2_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGTGATCGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGGGTCTCAGTCCCAGTGGGGCTGATCATCCTCTCAGAACAGCTACGGATCGTCGCCTTGGTGAACCATTACCTACCAACAAGCTAATCCGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME53B_2_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCGTGGGTGATCGCCCTCCCGAAGGTTAGGCTAACCACTTCTGGTGCAGTCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGGCAAGCTTTATGGGATTGGCTCCACTTCGCAGTATTGCAACCCTTTGTACTTGCCATTGTAGCACGTGTGTAGCCCTACCCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCGACATTACTCGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTACGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTCCTCTGGATGTCAAGGGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTATTGCGTTAGCTGCGCCACTAAGTCCTCAAGGGACCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTACCCACGCTTTCGCACCTCAGTGTCAGTGTCAGTCCAGAAGGCCGCCTTCGCCACTGGTATTCCTCCCGATCTCTACGCATTTCACCGCTACACCGGGAATTCTACCTTCCTCTCCTGCACTCTAGCCAAGCAGTTCCAGATGCCGTTCCCAGGTTGAGCCCGGGGCTTTCACACCTGGCTGACTTAGCCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTGATGTCTTTCCTCGAGAGTATTAATCCCAAGGCGTTCTTCCTCGCTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACCCACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAATCGGG</t>
-  </si>
-  <si>
     <t xml:space="preserve">ME53_1_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -861,12 +804,6 @@
   </si>
   <si>
     <t xml:space="preserve">TCCGTGGGTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACTCTCGCGAGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCGGGGTATCTAATCCCGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACACATGATGGGTATTAACCACNAAGCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME75B_2_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACTCTCGCGAGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCGGGGTATCTAATCCCGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACACATGATGGGTATTAACTACCACGCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGGCCGTGTCTCAGTCCCAGTGTGGCTGATCATCCTTCTCAAACCAGCTAGGGATCGTCGCCTTGGGTGAGCCATTACCTCACCAACTAGCTAATCCCACTTGGGGCCA</t>
   </si>
   <si>
     <t xml:space="preserve">ME76-Premixed.ab1</t>
@@ -2599,45 +2536,45 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I8" t="n">
-        <v>98.286</v>
+        <v>100</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L8" t="n">
-        <v>875</v>
+        <v>1050</v>
       </c>
       <c r="M8" t="n">
-        <v>873</v>
+        <v>1052</v>
       </c>
       <c r="N8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -2649,122 +2586,34 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>99.581</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L9" t="n">
-        <v>1050</v>
+        <v>1193</v>
       </c>
       <c r="M9" t="n">
-        <v>1052</v>
+        <v>1213</v>
       </c>
       <c r="N9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" t="n">
-        <v>99.676</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>99</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1236</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1238</v>
-      </c>
-      <c r="N10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
         <v>140</v>
-      </c>
-      <c r="F11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" t="n">
-        <v>99.581</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>98</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1193</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1213</v>
-      </c>
-      <c r="N11" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2827,7 +2676,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -2866,12 +2715,12 @@
         <v>999</v>
       </c>
       <c r="N2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -2910,12 +2759,12 @@
         <v>1026</v>
       </c>
       <c r="N3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -2954,12 +2803,12 @@
         <v>1026</v>
       </c>
       <c r="N4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -2977,10 +2826,10 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I5" t="n">
         <v>99.899</v>
@@ -2998,12 +2847,12 @@
         <v>988</v>
       </c>
       <c r="N5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3024,7 +2873,7 @@
         <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I6" t="n">
         <v>99.506</v>
@@ -3042,12 +2891,12 @@
         <v>1013</v>
       </c>
       <c r="N6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3068,7 +2917,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I7" t="n">
         <v>99.19</v>
@@ -3086,12 +2935,12 @@
         <v>1236</v>
       </c>
       <c r="N7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -3109,10 +2958,10 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I8" t="n">
         <v>99.236</v>
@@ -3130,12 +2979,12 @@
         <v>1181</v>
       </c>
       <c r="N8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -3153,10 +3002,10 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I9" t="n">
         <v>99.236</v>
@@ -3174,12 +3023,12 @@
         <v>1181</v>
       </c>
       <c r="N9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -3197,10 +3046,10 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I10" t="n">
         <v>99.236</v>
@@ -3218,92 +3067,92 @@
         <v>1181</v>
       </c>
       <c r="N10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I11" t="n">
-        <v>98.792</v>
+        <v>99.736</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L11" t="n">
-        <v>1242</v>
+        <v>1135</v>
       </c>
       <c r="M11" t="n">
-        <v>1261</v>
+        <v>1136</v>
       </c>
       <c r="N11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
         <v>164</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" t="s">
-        <v>163</v>
-      </c>
       <c r="I12" t="n">
-        <v>98.792</v>
+        <v>99.506</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L12" t="n">
-        <v>1242</v>
+        <v>1214</v>
       </c>
       <c r="M12" t="n">
-        <v>1261</v>
+        <v>1214</v>
       </c>
       <c r="N12" t="s">
         <v>165</v>
@@ -3311,31 +3160,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I13" t="n">
-        <v>98.749</v>
+        <v>99.506</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -3344,42 +3193,42 @@
         <v>100</v>
       </c>
       <c r="L13" t="n">
-        <v>1199</v>
+        <v>1214</v>
       </c>
       <c r="M13" t="n">
-        <v>1190</v>
+        <v>1214</v>
       </c>
       <c r="N13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I14" t="n">
-        <v>98.749</v>
+        <v>99.506</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -3388,42 +3237,42 @@
         <v>100</v>
       </c>
       <c r="L14" t="n">
-        <v>1199</v>
+        <v>1214</v>
       </c>
       <c r="M14" t="n">
-        <v>1190</v>
+        <v>1214</v>
       </c>
       <c r="N14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I15" t="n">
-        <v>98.749</v>
+        <v>99.506</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -3432,86 +3281,86 @@
         <v>100</v>
       </c>
       <c r="L15" t="n">
-        <v>1199</v>
+        <v>1214</v>
       </c>
       <c r="M15" t="n">
-        <v>1190</v>
+        <v>1214</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I16" t="n">
-        <v>99.736</v>
+        <v>99.506</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" t="n">
-        <v>1135</v>
+        <v>1214</v>
       </c>
       <c r="M16" t="n">
-        <v>1136</v>
+        <v>1214</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="I17" t="n">
-        <v>99.506</v>
+        <v>100</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -3520,101 +3369,101 @@
         <v>100</v>
       </c>
       <c r="L17" t="n">
-        <v>1214</v>
+        <v>1051</v>
       </c>
       <c r="M17" t="n">
-        <v>1214</v>
+        <v>1051</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="H18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I18" t="n">
-        <v>99.506</v>
+        <v>100</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.0000000296</v>
       </c>
       <c r="K18" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L18" t="n">
-        <v>1214</v>
+        <v>32</v>
       </c>
       <c r="M18" t="n">
-        <v>1214</v>
+        <v>1051</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="H19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I19" t="n">
-        <v>99.506</v>
+        <v>100</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.0000000296</v>
       </c>
       <c r="K19" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L19" t="n">
-        <v>1214</v>
+        <v>32</v>
       </c>
       <c r="M19" t="n">
-        <v>1214</v>
+        <v>1051</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -3625,37 +3474,37 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
         <v>172</v>
       </c>
       <c r="I20" t="n">
-        <v>99.506</v>
+        <v>97.043</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L20" t="n">
-        <v>1214</v>
+        <v>947</v>
       </c>
       <c r="M20" t="n">
-        <v>1214</v>
+        <v>951</v>
       </c>
       <c r="N20" t="s">
         <v>173</v>
@@ -3663,31 +3512,31 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I21" t="n">
-        <v>99.506</v>
+        <v>98.553</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3696,13 +3545,13 @@
         <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>1214</v>
+        <v>1106</v>
       </c>
       <c r="M21" t="n">
-        <v>1214</v>
+        <v>1106</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
@@ -3713,25 +3562,25 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="I22" t="n">
-        <v>100</v>
+        <v>98.553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -3740,18 +3589,18 @@
         <v>100</v>
       </c>
       <c r="L22" t="n">
-        <v>1051</v>
+        <v>1106</v>
       </c>
       <c r="M22" t="n">
-        <v>1051</v>
+        <v>1106</v>
       </c>
       <c r="N22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -3766,36 +3615,36 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I23" t="n">
-        <v>100</v>
+        <v>98.708</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0000000296</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
-        <v>32</v>
+        <v>1161</v>
       </c>
       <c r="M23" t="n">
-        <v>1051</v>
+        <v>1157</v>
       </c>
       <c r="N23" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -3810,36 +3659,36 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="I24" t="n">
-        <v>100</v>
+        <v>99.899</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0000000296</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
-        <v>32</v>
+        <v>987</v>
       </c>
       <c r="M24" t="n">
-        <v>1051</v>
+        <v>987</v>
       </c>
       <c r="N24" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -3851,127 +3700,127 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="I25" t="n">
-        <v>97.043</v>
+        <v>99.333</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
-        <v>947</v>
+        <v>1200</v>
       </c>
       <c r="M25" t="n">
-        <v>951</v>
+        <v>1196</v>
       </c>
       <c r="N25" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="I26" t="n">
-        <v>97.958</v>
+        <v>99.907</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
-        <v>1273</v>
+        <v>1074</v>
       </c>
       <c r="M26" t="n">
-        <v>1271</v>
+        <v>1074</v>
       </c>
       <c r="N26" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I27" t="n">
-        <v>98.553</v>
+        <v>99.445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L27" t="n">
-        <v>1106</v>
+        <v>1082</v>
       </c>
       <c r="M27" t="n">
-        <v>1106</v>
+        <v>1083</v>
       </c>
       <c r="N27" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -3989,33 +3838,33 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="H28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I28" t="n">
-        <v>98.553</v>
+        <v>98.73</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L28" t="n">
-        <v>1106</v>
+        <v>1260</v>
       </c>
       <c r="M28" t="n">
-        <v>1106</v>
+        <v>1261</v>
       </c>
       <c r="N28" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -4027,298 +3876,34 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="I29" t="n">
-        <v>98.708</v>
+        <v>99.746</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L29" t="n">
-        <v>1161</v>
+        <v>1179</v>
       </c>
       <c r="M29" t="n">
-        <v>1157</v>
+        <v>1181</v>
       </c>
       <c r="N29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" t="n">
-        <v>99.899</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>100</v>
-      </c>
-      <c r="L30" t="n">
-        <v>987</v>
-      </c>
-      <c r="M30" t="n">
-        <v>987</v>
-      </c>
-      <c r="N30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" t="n">
-        <v>99.333</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>100</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1200</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1196</v>
-      </c>
-      <c r="N31" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" t="n">
-        <v>99.907</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>100</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1074</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1074</v>
-      </c>
-      <c r="N32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s">
-        <v>201</v>
-      </c>
-      <c r="I33" t="n">
-        <v>99.445</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>99</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1082</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1083</v>
-      </c>
-      <c r="N33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" t="s">
-        <v>204</v>
-      </c>
-      <c r="H34" t="s">
-        <v>205</v>
-      </c>
-      <c r="I34" t="n">
-        <v>98.73</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>99</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1260</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1261</v>
-      </c>
-      <c r="N34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>207</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" t="s">
-        <v>157</v>
-      </c>
-      <c r="I35" t="n">
-        <v>99.746</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>99</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1179</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1181</v>
-      </c>
-      <c r="N35" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4381,7 +3966,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -4402,7 +3987,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I2" t="n">
         <v>99.712</v>
@@ -4420,12 +4005,12 @@
         <v>1042</v>
       </c>
       <c r="N2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -4464,12 +4049,12 @@
         <v>1070</v>
       </c>
       <c r="N3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -4508,12 +4093,12 @@
         <v>1156</v>
       </c>
       <c r="N4" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4528,13 +4113,13 @@
         <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I5" t="n">
         <v>99.714</v>
@@ -4552,12 +4137,12 @@
         <v>1048</v>
       </c>
       <c r="N5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4572,13 +4157,13 @@
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H6" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I6" t="n">
         <v>99.714</v>
@@ -4596,12 +4181,12 @@
         <v>1048</v>
       </c>
       <c r="N6" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -4622,7 +4207,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I7" t="n">
         <v>99.132</v>
@@ -4640,12 +4225,12 @@
         <v>1152</v>
       </c>
       <c r="N7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -4663,10 +4248,10 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I8" t="n">
         <v>99.742</v>
@@ -4684,12 +4269,12 @@
         <v>1163</v>
       </c>
       <c r="N8" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -4707,10 +4292,10 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I9" t="n">
         <v>99.742</v>
@@ -4728,12 +4313,12 @@
         <v>1163</v>
       </c>
       <c r="N9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -4742,19 +4327,19 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G10" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="I10" t="n">
         <v>97.069</v>
@@ -4772,12 +4357,12 @@
         <v>1181</v>
       </c>
       <c r="N10" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -4795,10 +4380,10 @@
         <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H11" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="I11" t="n">
         <v>99.507</v>
@@ -4816,12 +4401,12 @@
         <v>1033</v>
       </c>
       <c r="N11" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -4839,10 +4424,10 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H12" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I12" t="n">
         <v>99.092</v>
@@ -4860,12 +4445,12 @@
         <v>1210</v>
       </c>
       <c r="N12" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -4889,71 +4474,71 @@
         <v>98</v>
       </c>
       <c r="I13" t="n">
-        <v>99.911</v>
+        <v>99.912</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L13" t="n">
-        <v>1121</v>
+        <v>1139</v>
       </c>
       <c r="M13" t="n">
-        <v>1121</v>
+        <v>1143</v>
       </c>
       <c r="N13" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="I14" t="n">
-        <v>99.912</v>
+        <v>98.23</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" t="n">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="M14" t="n">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="N14" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -4977,7 +4562,7 @@
         <v>98</v>
       </c>
       <c r="I15" t="n">
-        <v>99.914</v>
+        <v>99.828</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -4986,18 +4571,18 @@
         <v>100</v>
       </c>
       <c r="L15" t="n">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="M15" t="n">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="N15" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -5006,22 +4591,22 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="H16" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="I16" t="n">
-        <v>98.23</v>
+        <v>99.898</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -5030,42 +4615,42 @@
         <v>100</v>
       </c>
       <c r="L16" t="n">
-        <v>1130</v>
+        <v>982</v>
       </c>
       <c r="M16" t="n">
-        <v>1130</v>
+        <v>982</v>
       </c>
       <c r="N16" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="I17" t="n">
-        <v>99.593</v>
+        <v>99.898</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -5074,18 +4659,18 @@
         <v>100</v>
       </c>
       <c r="L17" t="n">
-        <v>1230</v>
+        <v>982</v>
       </c>
       <c r="M17" t="n">
-        <v>1229</v>
+        <v>982</v>
       </c>
       <c r="N17" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -5094,22 +4679,22 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="I18" t="n">
-        <v>99.649</v>
+        <v>98.578</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -5118,62 +4703,62 @@
         <v>100</v>
       </c>
       <c r="L18" t="n">
-        <v>1141</v>
+        <v>844</v>
       </c>
       <c r="M18" t="n">
-        <v>1140</v>
+        <v>844</v>
       </c>
       <c r="N18" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="I19" t="n">
-        <v>99.828</v>
+        <v>99.49</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L19" t="n">
-        <v>1162</v>
+        <v>980</v>
       </c>
       <c r="M19" t="n">
-        <v>1162</v>
+        <v>981</v>
       </c>
       <c r="N19" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -5191,57 +4776,57 @@
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="H20" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="I20" t="n">
-        <v>99.898</v>
+        <v>99.407</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L20" t="n">
-        <v>982</v>
+        <v>1011</v>
       </c>
       <c r="M20" t="n">
-        <v>982</v>
+        <v>1011</v>
       </c>
       <c r="N20" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="I21" t="n">
-        <v>99.898</v>
+        <v>99.764</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -5250,18 +4835,18 @@
         <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>982</v>
+        <v>848</v>
       </c>
       <c r="M21" t="n">
-        <v>982</v>
+        <v>848</v>
       </c>
       <c r="N21" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -5270,22 +4855,22 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="I22" t="n">
-        <v>98.578</v>
+        <v>99.764</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -5294,106 +4879,106 @@
         <v>100</v>
       </c>
       <c r="L22" t="n">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="M22" t="n">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="N22" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="H23" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="I23" t="n">
-        <v>99.49</v>
+        <v>100</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="M23" t="n">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="N23" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="I24" t="n">
-        <v>99.407</v>
+        <v>100</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
-        <v>1011</v>
+        <v>970</v>
       </c>
       <c r="M24" t="n">
-        <v>1011</v>
+        <v>970</v>
       </c>
       <c r="N24" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -5405,19 +4990,19 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="I25" t="n">
-        <v>99.764</v>
+        <v>99.346</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -5426,18 +5011,18 @@
         <v>100</v>
       </c>
       <c r="L25" t="n">
-        <v>848</v>
+        <v>918</v>
       </c>
       <c r="M25" t="n">
-        <v>848</v>
+        <v>918</v>
       </c>
       <c r="N25" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -5449,19 +5034,19 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="I26" t="n">
-        <v>99.764</v>
+        <v>98.35</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -5470,18 +5055,18 @@
         <v>100</v>
       </c>
       <c r="L26" t="n">
-        <v>848</v>
+        <v>1212</v>
       </c>
       <c r="M26" t="n">
-        <v>848</v>
+        <v>1209</v>
       </c>
       <c r="N26" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -5493,19 +5078,19 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="I27" t="n">
-        <v>100</v>
+        <v>99.678</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -5514,18 +5099,18 @@
         <v>100</v>
       </c>
       <c r="L27" t="n">
-        <v>970</v>
+        <v>933</v>
       </c>
       <c r="M27" t="n">
-        <v>970</v>
+        <v>933</v>
       </c>
       <c r="N27" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -5537,19 +5122,19 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="I28" t="n">
-        <v>100</v>
+        <v>99.109</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -5558,18 +5143,18 @@
         <v>100</v>
       </c>
       <c r="L28" t="n">
-        <v>970</v>
+        <v>1122</v>
       </c>
       <c r="M28" t="n">
-        <v>970</v>
+        <v>1122</v>
       </c>
       <c r="N28" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -5584,16 +5169,16 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="I29" t="n">
-        <v>99.346</v>
+        <v>99.804</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -5602,18 +5187,18 @@
         <v>100</v>
       </c>
       <c r="L29" t="n">
-        <v>918</v>
+        <v>1021</v>
       </c>
       <c r="M29" t="n">
-        <v>918</v>
+        <v>1021</v>
       </c>
       <c r="N29" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -5628,16 +5213,16 @@
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>274</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="I30" t="n">
-        <v>98.35</v>
+        <v>99.804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -5646,18 +5231,18 @@
         <v>100</v>
       </c>
       <c r="L30" t="n">
-        <v>1212</v>
+        <v>1021</v>
       </c>
       <c r="M30" t="n">
-        <v>1209</v>
+        <v>1021</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -5672,16 +5257,16 @@
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="I31" t="n">
-        <v>99.678</v>
+        <v>99.804</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -5690,18 +5275,18 @@
         <v>100</v>
       </c>
       <c r="L31" t="n">
-        <v>933</v>
+        <v>1021</v>
       </c>
       <c r="M31" t="n">
-        <v>933</v>
+        <v>1021</v>
       </c>
       <c r="N31" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -5722,10 +5307,10 @@
         <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="I32" t="n">
-        <v>99.109</v>
+        <v>99.804</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -5734,277 +5319,13 @@
         <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>1122</v>
+        <v>1021</v>
       </c>
       <c r="M32" t="n">
-        <v>1122</v>
+        <v>1021</v>
       </c>
       <c r="N32" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>282</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" t="n">
-        <v>98.873</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>100</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1242</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1240</v>
-      </c>
-      <c r="N33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>282</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" t="n">
-        <v>98.873</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>100</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1242</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1240</v>
-      </c>
-      <c r="N34" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>284</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s">
-        <v>285</v>
-      </c>
-      <c r="I35" t="n">
-        <v>99.804</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>100</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1021</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1021</v>
-      </c>
-      <c r="N35" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" t="s">
-        <v>287</v>
-      </c>
-      <c r="I36" t="n">
-        <v>99.804</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>100</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1021</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1021</v>
-      </c>
-      <c r="N36" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>284</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" t="s">
-        <v>287</v>
-      </c>
-      <c r="I37" t="n">
-        <v>99.804</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>100</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1021</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1021</v>
-      </c>
-      <c r="N37" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>284</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" t="s">
-        <v>288</v>
-      </c>
-      <c r="I38" t="n">
-        <v>99.804</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>100</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1021</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1021</v>
-      </c>
-      <c r="N38" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
